--- a/Converter/DATA_water_updated.xlsx
+++ b/Converter/DATA_water_updated.xlsx
@@ -441,52 +441,52 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>DMF</t>
+          <t>V (DMF)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>H2O_vol</t>
+          <t>V (water)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Acid_vol</t>
+          <t>V(Acid)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Acid_pKa</t>
+          <t>n (Acid)</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>Acid pKa</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>ACID</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Temperature</t>
-        </is>
-      </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Time_h_calc</t>
+          <t xml:space="preserve">Temperature </t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>%FA_formed(w/w)</t>
+          <t>Time (h)</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
+          <t>%FA (w/w)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
           <t>SD</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Acid_moles</t>
         </is>
       </c>
     </row>
@@ -509,27 +509,27 @@
         <v>0.38</v>
       </c>
       <c r="F2" t="n">
+        <v>0.004965664822009595</v>
+      </c>
+      <c r="G2" t="n">
         <v>0</v>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>TFAA</t>
         </is>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>60</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>3</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>0.09953373463524055</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>0.0116399132930729</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0.004965664822009595</v>
       </c>
     </row>
     <row r="3">
@@ -548,30 +548,30 @@
         <v>0.84</v>
       </c>
       <c r="E3" t="n">
-        <v>0.46</v>
+        <v>0.459999999999999</v>
       </c>
       <c r="F3" t="n">
+        <v>0.006011067942432655</v>
+      </c>
+      <c r="G3" t="n">
         <v>0</v>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>TFAA</t>
         </is>
       </c>
-      <c r="H3" t="n">
+      <c r="I3" t="n">
         <v>150</v>
       </c>
-      <c r="I3" t="n">
+      <c r="J3" t="n">
         <v>6</v>
       </c>
-      <c r="J3" t="n">
+      <c r="K3" t="n">
         <v>0.1006666620065813</v>
       </c>
-      <c r="K3" t="n">
+      <c r="L3" t="n">
         <v>0.01073871946132841</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0.006011067942432655</v>
       </c>
     </row>
     <row r="4">
@@ -593,27 +593,27 @@
         <v>1.14</v>
       </c>
       <c r="F4" t="n">
+        <v>0.01368</v>
+      </c>
+      <c r="G4" t="n">
         <v>-6.3</v>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>HCl</t>
         </is>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>100</v>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>9</v>
       </c>
-      <c r="J4" t="n">
+      <c r="K4" t="n">
         <v>0.3400753958812857</v>
       </c>
-      <c r="K4" t="n">
+      <c r="L4" t="n">
         <v>0.04211124151309204</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0.01368</v>
       </c>
     </row>
     <row r="5">
@@ -635,27 +635,27 @@
         <v>0.06</v>
       </c>
       <c r="F5" t="n">
+        <v>0.001003174603174603</v>
+      </c>
+      <c r="G5" t="n">
         <v>2.86</v>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>ClAA</t>
         </is>
       </c>
-      <c r="H5" t="n">
+      <c r="I5" t="n">
         <v>100</v>
       </c>
-      <c r="I5" t="n">
+      <c r="J5" t="n">
         <v>24</v>
       </c>
-      <c r="J5" t="n">
+      <c r="K5" t="n">
         <v>0.03060995961014907</v>
       </c>
-      <c r="K5" t="n">
+      <c r="L5" t="n">
         <v>0.001768686401128875</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0.001003174603174603</v>
       </c>
     </row>
     <row r="6">
@@ -677,27 +677,27 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="F6" t="n">
+        <v>0.01645</v>
+      </c>
+      <c r="G6" t="n">
         <v>4.75</v>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>AA</t>
         </is>
       </c>
-      <c r="H6" t="n">
+      <c r="I6" t="n">
         <v>100</v>
       </c>
-      <c r="I6" t="n">
+      <c r="J6" t="n">
         <v>24</v>
       </c>
-      <c r="J6" t="n">
+      <c r="K6" t="n">
         <v>0.1037817771100768</v>
       </c>
-      <c r="K6" t="n">
+      <c r="L6" t="n">
         <v>0.02347336268185847</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0.01645</v>
       </c>
     </row>
     <row r="7">
@@ -719,27 +719,27 @@
         <v>1.82</v>
       </c>
       <c r="F7" t="n">
+        <v>0.02184</v>
+      </c>
+      <c r="G7" t="n">
         <v>-6.3</v>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>HCl</t>
         </is>
       </c>
-      <c r="H7" t="n">
+      <c r="I7" t="n">
         <v>120</v>
       </c>
-      <c r="I7" t="n">
+      <c r="J7" t="n">
         <v>24</v>
       </c>
-      <c r="J7" t="n">
+      <c r="K7" t="n">
         <v>0.5298593353765138</v>
       </c>
-      <c r="K7" t="n">
+      <c r="L7" t="n">
         <v>0.01592565444725583</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0.02184</v>
       </c>
     </row>
     <row r="8">
@@ -761,27 +761,27 @@
         <v>0.82</v>
       </c>
       <c r="F8" t="n">
+        <v>0.01435</v>
+      </c>
+      <c r="G8" t="n">
         <v>4.75</v>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>AA</t>
         </is>
       </c>
-      <c r="H8" t="n">
+      <c r="I8" t="n">
         <v>100</v>
       </c>
-      <c r="I8" t="n">
+      <c r="J8" t="n">
         <v>24</v>
       </c>
-      <c r="J8" t="n">
+      <c r="K8" t="n">
         <v>0.08213406966106472</v>
       </c>
-      <c r="K8" t="n">
+      <c r="L8" t="n">
         <v>0.003077500266528529</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0.01435</v>
       </c>
     </row>
     <row r="9">
@@ -803,27 +803,27 @@
         <v>1.38</v>
       </c>
       <c r="F9" t="n">
+        <v>0.01673252675663099</v>
+      </c>
+      <c r="G9" t="n">
         <v>1.35</v>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>DClAA</t>
         </is>
       </c>
-      <c r="H9" t="n">
+      <c r="I9" t="n">
         <v>120</v>
       </c>
-      <c r="I9" t="n">
+      <c r="J9" t="n">
         <v>24</v>
       </c>
-      <c r="J9" t="n">
+      <c r="K9" t="n">
         <v>0.533150273181165</v>
       </c>
-      <c r="K9" t="n">
+      <c r="L9" t="n">
         <v>0.01158141287864395</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0.01673252675663099</v>
       </c>
     </row>
     <row r="10">
@@ -845,27 +845,27 @@
         <v>1.1</v>
       </c>
       <c r="F10" t="n">
+        <v>0.02052427125072646</v>
+      </c>
+      <c r="G10" t="n">
         <v>-3</v>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>H2SO4</t>
         </is>
       </c>
-      <c r="H10" t="n">
+      <c r="I10" t="n">
         <v>60</v>
       </c>
-      <c r="I10" t="n">
+      <c r="J10" t="n">
         <v>24</v>
       </c>
-      <c r="J10" t="n">
+      <c r="K10" t="n">
         <v>0.4876181179008066</v>
       </c>
-      <c r="K10" t="n">
+      <c r="L10" t="n">
         <v>0.007358757209886709</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0.02052427125072646</v>
       </c>
     </row>
     <row r="11">
@@ -887,27 +887,27 @@
         <v>1.18</v>
       </c>
       <c r="F11" t="n">
+        <v>0.01541969602624032</v>
+      </c>
+      <c r="G11" t="n">
         <v>0</v>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>TFAA</t>
         </is>
       </c>
-      <c r="H11" t="n">
+      <c r="I11" t="n">
         <v>60</v>
       </c>
-      <c r="I11" t="n">
+      <c r="J11" t="n">
         <v>24</v>
       </c>
-      <c r="J11" t="n">
+      <c r="K11" t="n">
         <v>0.4140874296918224</v>
       </c>
-      <c r="K11" t="n">
+      <c r="L11" t="n">
         <v>0.02153856284654001</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0.01541969602624032</v>
       </c>
     </row>
     <row r="12">
@@ -929,27 +929,27 @@
         <v>1.26</v>
       </c>
       <c r="F12" t="n">
+        <v>0.02350961979628667</v>
+      </c>
+      <c r="G12" t="n">
         <v>-3</v>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>H2SO4</t>
         </is>
       </c>
-      <c r="H12" t="n">
+      <c r="I12" t="n">
         <v>40</v>
       </c>
-      <c r="I12" t="n">
+      <c r="J12" t="n">
         <v>48</v>
       </c>
-      <c r="J12" t="n">
+      <c r="K12" t="n">
         <v>0.1125889364180262</v>
       </c>
-      <c r="K12" t="n">
+      <c r="L12" t="n">
         <v>0.003875582089654739</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0.02350961979628667</v>
       </c>
     </row>
     <row r="13">
@@ -971,27 +971,27 @@
         <v>1.42</v>
       </c>
       <c r="F13" t="n">
+        <v>0.022436</v>
+      </c>
+      <c r="G13" t="n">
         <v>-1.37</v>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>HNO3</t>
         </is>
       </c>
-      <c r="H13" t="n">
+      <c r="I13" t="n">
         <v>80</v>
       </c>
-      <c r="I13" t="n">
+      <c r="J13" t="n">
         <v>48</v>
       </c>
-      <c r="J13" t="n">
+      <c r="K13" t="n">
         <v>0.1444158173804312</v>
       </c>
-      <c r="K13" t="n">
+      <c r="L13" t="n">
         <v>0.007827565599741185</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0.03403492063492063</v>
       </c>
     </row>
     <row r="14">
@@ -1013,27 +1013,27 @@
         <v>0.66</v>
       </c>
       <c r="F14" t="n">
+        <v>0.010428</v>
+      </c>
+      <c r="G14" t="n">
         <v>-1.37</v>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>HNO3</t>
         </is>
       </c>
-      <c r="H14" t="n">
+      <c r="I14" t="n">
         <v>80</v>
       </c>
-      <c r="I14" t="n">
+      <c r="J14" t="n">
         <v>48</v>
       </c>
-      <c r="J14" t="n">
+      <c r="K14" t="n">
         <v>0.499268</v>
       </c>
-      <c r="K14" t="n">
+      <c r="L14" t="n">
         <v>0.024733</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0.01581904761904762</v>
       </c>
     </row>
     <row r="15">
@@ -1055,27 +1055,27 @@
         <v>0.78</v>
       </c>
       <c r="F15" t="n">
+        <v>0.01365</v>
+      </c>
+      <c r="G15" t="n">
         <v>4.75</v>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>AA</t>
         </is>
       </c>
-      <c r="H15" t="n">
+      <c r="I15" t="n">
         <v>100</v>
       </c>
-      <c r="I15" t="n">
+      <c r="J15" t="n">
         <v>48</v>
       </c>
-      <c r="J15" t="n">
+      <c r="K15" t="n">
         <v>0.01655349308749546</v>
       </c>
-      <c r="K15" t="n">
+      <c r="L15" t="n">
         <v>0.001038777027306043</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0.01365</v>
       </c>
     </row>
     <row r="16">
@@ -1097,27 +1097,27 @@
         <v>0.74</v>
       </c>
       <c r="F16" t="n">
+        <v>0.008879999999999999</v>
+      </c>
+      <c r="G16" t="n">
         <v>-6.3</v>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>HCl</t>
         </is>
       </c>
-      <c r="H16" t="n">
+      <c r="I16" t="n">
         <v>100</v>
       </c>
-      <c r="I16" t="n">
+      <c r="J16" t="n">
         <v>48</v>
       </c>
-      <c r="J16" t="n">
+      <c r="K16" t="n">
         <v>0.08841268703654813</v>
       </c>
-      <c r="K16" t="n">
+      <c r="L16" t="n">
         <v>0.01204826193375316</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0.008879999999999999</v>
       </c>
     </row>
     <row r="17">
@@ -1139,27 +1139,27 @@
         <v>1.66</v>
       </c>
       <c r="F17" t="n">
+        <v>0.02905</v>
+      </c>
+      <c r="G17" t="n">
         <v>4.75</v>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>AA</t>
         </is>
       </c>
-      <c r="H17" t="n">
+      <c r="I17" t="n">
         <v>40</v>
       </c>
-      <c r="I17" t="n">
+      <c r="J17" t="n">
         <v>48</v>
       </c>
-      <c r="J17" t="n">
+      <c r="K17" t="n">
         <v>0.02097010818540955</v>
       </c>
-      <c r="K17" t="n">
+      <c r="L17" t="n">
         <v>0.001499426865002619</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0.02905</v>
       </c>
     </row>
     <row r="18">
@@ -1181,27 +1181,27 @@
         <v>1.54</v>
       </c>
       <c r="F18" t="n">
+        <v>0.02574814814814815</v>
+      </c>
+      <c r="G18" t="n">
         <v>2.86</v>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>ClAA</t>
         </is>
       </c>
-      <c r="H18" t="n">
+      <c r="I18" t="n">
         <v>25</v>
       </c>
-      <c r="I18" t="n">
+      <c r="J18" t="n">
         <v>48</v>
       </c>
-      <c r="J18" t="n">
+      <c r="K18" t="n">
         <v>0.005419596286363557</v>
       </c>
-      <c r="K18" t="n">
+      <c r="L18" t="n">
         <v>0.003603767589985752</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0.02574814814814815</v>
       </c>
     </row>
     <row r="19">
@@ -1223,27 +1223,27 @@
         <v>1.7</v>
       </c>
       <c r="F19" t="n">
+        <v>0.0204</v>
+      </c>
+      <c r="G19" t="n">
         <v>-6.3</v>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>HCl</t>
         </is>
       </c>
-      <c r="H19" t="n">
+      <c r="I19" t="n">
         <v>120</v>
       </c>
-      <c r="I19" t="n">
+      <c r="J19" t="n">
         <v>48</v>
       </c>
-      <c r="J19" t="n">
+      <c r="K19" t="n">
         <v>0.1278618618160029</v>
       </c>
-      <c r="K19" t="n">
+      <c r="L19" t="n">
         <v>0.006620566872514458</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0.0204</v>
       </c>
     </row>
     <row r="20">
@@ -1265,27 +1265,27 @@
         <v>0.9</v>
       </c>
       <c r="F20" t="n">
+        <v>0.01176078510475957</v>
+      </c>
+      <c r="G20" t="n">
         <v>0</v>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>TFAA</t>
         </is>
       </c>
-      <c r="H20" t="n">
+      <c r="I20" t="n">
         <v>40</v>
       </c>
-      <c r="I20" t="n">
+      <c r="J20" t="n">
         <v>72</v>
       </c>
-      <c r="J20" t="n">
+      <c r="K20" t="n">
         <v>0.2254454308874615</v>
       </c>
-      <c r="K20" t="n">
+      <c r="L20" t="n">
         <v>0.005826923332263073</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0.01176078510475957</v>
       </c>
     </row>
     <row r="21">
@@ -1307,27 +1307,27 @@
         <v>1.22</v>
       </c>
       <c r="F21" t="n">
+        <v>0.0147925236544129</v>
+      </c>
+      <c r="G21" t="n">
         <v>1.35</v>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>DClAA</t>
         </is>
       </c>
-      <c r="H21" t="n">
+      <c r="I21" t="n">
         <v>40</v>
       </c>
-      <c r="I21" t="n">
+      <c r="J21" t="n">
         <v>72</v>
       </c>
-      <c r="J21" t="n">
+      <c r="K21" t="n">
         <v>0.1227125631238226</v>
       </c>
-      <c r="K21" t="n">
+      <c r="L21" t="n">
         <v>0.007455182494460064</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0.0147925236544129</v>
       </c>
     </row>
     <row r="22">
@@ -1349,27 +1349,27 @@
         <v>0.42</v>
       </c>
       <c r="F22" t="n">
+        <v>0.005039999999999999</v>
+      </c>
+      <c r="G22" t="n">
         <v>-6.3</v>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>HCl</t>
         </is>
       </c>
-      <c r="H22" t="n">
+      <c r="I22" t="n">
         <v>150</v>
       </c>
-      <c r="I22" t="n">
+      <c r="J22" t="n">
         <v>72</v>
       </c>
-      <c r="J22" t="n">
+      <c r="K22" t="n">
         <v>0.1294751217145108</v>
       </c>
-      <c r="K22" t="n">
+      <c r="L22" t="n">
         <v>0.01811242429756359</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0.005039999999999999</v>
       </c>
     </row>
     <row r="23">
@@ -1391,27 +1391,27 @@
         <v>0.26</v>
       </c>
       <c r="F23" t="n">
+        <v>0.00455</v>
+      </c>
+      <c r="G23" t="n">
         <v>4.75</v>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>AA</t>
         </is>
       </c>
-      <c r="H23" t="n">
+      <c r="I23" t="n">
         <v>100</v>
       </c>
-      <c r="I23" t="n">
+      <c r="J23" t="n">
         <v>72</v>
       </c>
-      <c r="J23" t="n">
+      <c r="K23" t="n">
         <v>0.01370647980204415</v>
       </c>
-      <c r="K23" t="n">
+      <c r="L23" t="n">
         <v>0.007172117128798142</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0.00455</v>
       </c>
     </row>
     <row r="24">
@@ -1433,27 +1433,27 @@
         <v>0.1</v>
       </c>
       <c r="F24" t="n">
+        <v>0.001865842840975133</v>
+      </c>
+      <c r="G24" t="n">
         <v>-3</v>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>H2SO4</t>
         </is>
       </c>
-      <c r="H24" t="n">
+      <c r="I24" t="n">
         <v>120</v>
       </c>
-      <c r="I24" t="n">
+      <c r="J24" t="n">
         <v>72</v>
       </c>
-      <c r="J24" t="n">
+      <c r="K24" t="n">
         <v>0.1089011504105351</v>
       </c>
-      <c r="K24" t="n">
+      <c r="L24" t="n">
         <v>0.01031066752986004</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0.001865842840975133</v>
       </c>
     </row>
     <row r="25">
@@ -1475,27 +1475,27 @@
         <v>1.86</v>
       </c>
       <c r="F25" t="n">
+        <v>0.0310984126984127</v>
+      </c>
+      <c r="G25" t="n">
         <v>2.86</v>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>ClAA</t>
         </is>
       </c>
-      <c r="H25" t="n">
+      <c r="I25" t="n">
         <v>25</v>
       </c>
-      <c r="I25" t="n">
+      <c r="J25" t="n">
         <v>72</v>
       </c>
-      <c r="J25" t="n">
+      <c r="K25" t="n">
         <v>0.023768108937489</v>
       </c>
-      <c r="K25" t="n">
+      <c r="L25" t="n">
         <v>0.004088966166425813</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0.0310984126984127</v>
       </c>
     </row>
     <row r="26">
@@ -1517,27 +1517,27 @@
         <v>0.02</v>
       </c>
       <c r="F26" t="n">
+        <v>0.0003731685681950265</v>
+      </c>
+      <c r="G26" t="n">
         <v>-3</v>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>H2SO4</t>
         </is>
       </c>
-      <c r="H26" t="n">
+      <c r="I26" t="n">
         <v>120</v>
       </c>
-      <c r="I26" t="n">
+      <c r="J26" t="n">
         <v>72</v>
       </c>
-      <c r="J26" t="n">
+      <c r="K26" t="n">
         <v>0.3211526874553961</v>
       </c>
-      <c r="K26" t="n">
+      <c r="L26" t="n">
         <v>0.01395958005252204</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0.0003731685681950265</v>
       </c>
     </row>
     <row r="27">
@@ -1559,27 +1559,27 @@
         <v>1.06</v>
       </c>
       <c r="F27" t="n">
+        <v>0.01285252055219482</v>
+      </c>
+      <c r="G27" t="n">
         <v>1.35</v>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>DClAA</t>
         </is>
       </c>
-      <c r="H27" t="n">
+      <c r="I27" t="n">
         <v>40</v>
       </c>
-      <c r="I27" t="n">
+      <c r="J27" t="n">
         <v>96</v>
       </c>
-      <c r="J27" t="n">
+      <c r="K27" t="n">
         <v>0.06835489503417334</v>
       </c>
-      <c r="K27" t="n">
+      <c r="L27" t="n">
         <v>0.008511203790832396</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0.01285252055219482</v>
       </c>
     </row>
     <row r="28">
@@ -1601,27 +1601,27 @@
         <v>1.58</v>
       </c>
       <c r="F28" t="n">
+        <v>0.0191575306344036</v>
+      </c>
+      <c r="G28" t="n">
         <v>1.35</v>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>DClAA</t>
         </is>
       </c>
-      <c r="H28" t="n">
+      <c r="I28" t="n">
         <v>150</v>
       </c>
-      <c r="I28" t="n">
+      <c r="J28" t="n">
         <v>96</v>
       </c>
-      <c r="J28" t="n">
+      <c r="K28" t="n">
         <v>0.1144140942733154</v>
       </c>
-      <c r="K28" t="n">
+      <c r="L28" t="n">
         <v>0.02992427493920111</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0.0191575306344036</v>
       </c>
     </row>
     <row r="29">
@@ -1643,27 +1643,27 @@
         <v>1.62</v>
       </c>
       <c r="F29" t="n">
+        <v>0.02708571428571429</v>
+      </c>
+      <c r="G29" t="n">
         <v>2.86</v>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>ClAA</t>
         </is>
       </c>
-      <c r="H29" t="n">
+      <c r="I29" t="n">
         <v>40</v>
       </c>
-      <c r="I29" t="n">
+      <c r="J29" t="n">
         <v>96</v>
       </c>
-      <c r="J29" t="n">
+      <c r="K29" t="n">
         <v>0.05290519481512249</v>
       </c>
-      <c r="K29" t="n">
+      <c r="L29" t="n">
         <v>0.01365864078657658</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0.02708571428571429</v>
       </c>
     </row>
     <row r="30">
@@ -1685,27 +1685,27 @@
         <v>0.7</v>
       </c>
       <c r="F30" t="n">
+        <v>0.01306089988682593</v>
+      </c>
+      <c r="G30" t="n">
         <v>-3</v>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>H2SO4</t>
         </is>
       </c>
-      <c r="H30" t="n">
+      <c r="I30" t="n">
         <v>120</v>
       </c>
-      <c r="I30" t="n">
+      <c r="J30" t="n">
         <v>96</v>
       </c>
-      <c r="J30" t="n">
+      <c r="K30" t="n">
         <v>0.2396540862427419</v>
       </c>
-      <c r="K30" t="n">
+      <c r="L30" t="n">
         <v>0.01245145525913146</v>
-      </c>
-      <c r="L30" t="n">
-        <v>0.01306089988682593</v>
       </c>
     </row>
     <row r="31">
@@ -1727,27 +1727,27 @@
         <v>1.9</v>
       </c>
       <c r="F31" t="n">
+        <v>0.03545101397852751</v>
+      </c>
+      <c r="G31" t="n">
         <v>-3</v>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>H2SO4</t>
         </is>
       </c>
-      <c r="H31" t="n">
+      <c r="I31" t="n">
         <v>100</v>
       </c>
-      <c r="I31" t="n">
+      <c r="J31" t="n">
         <v>96</v>
       </c>
-      <c r="J31" t="n">
+      <c r="K31" t="n">
         <v>0.2319476233207138</v>
       </c>
-      <c r="K31" t="n">
+      <c r="L31" t="n">
         <v>0.007831694135377725</v>
-      </c>
-      <c r="L31" t="n">
-        <v>0.03545101397852751</v>
       </c>
     </row>
     <row r="32">
@@ -1769,27 +1769,27 @@
         <v>0.22</v>
       </c>
       <c r="F32" t="n">
+        <v>0.00264</v>
+      </c>
+      <c r="G32" t="n">
         <v>-6.3</v>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>HCl</t>
         </is>
       </c>
-      <c r="H32" t="n">
+      <c r="I32" t="n">
         <v>120</v>
       </c>
-      <c r="I32" t="n">
+      <c r="J32" t="n">
         <v>96</v>
       </c>
-      <c r="J32" t="n">
+      <c r="K32" t="n">
         <v>0.03994538812460312</v>
       </c>
-      <c r="K32" t="n">
+      <c r="L32" t="n">
         <v>0.006805778873074817</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0.00264</v>
       </c>
     </row>
     <row r="33">
@@ -1811,27 +1811,27 @@
         <v>0.18</v>
       </c>
       <c r="F33" t="n">
+        <v>0.00216</v>
+      </c>
+      <c r="G33" t="n">
         <v>-6.3</v>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>HCl</t>
         </is>
       </c>
-      <c r="H33" t="n">
+      <c r="I33" t="n">
         <v>80</v>
       </c>
-      <c r="I33" t="n">
+      <c r="J33" t="n">
         <v>96</v>
       </c>
-      <c r="J33" t="n">
+      <c r="K33" t="n">
         <v>0.04017305894805703</v>
       </c>
-      <c r="K33" t="n">
+      <c r="L33" t="n">
         <v>0.005485428395217663</v>
-      </c>
-      <c r="L33" t="n">
-        <v>0.00216</v>
       </c>
     </row>
     <row r="34">
@@ -1853,27 +1853,27 @@
         <v>0.62</v>
       </c>
       <c r="F34" t="n">
+        <v>0.01156822561404582</v>
+      </c>
+      <c r="G34" t="n">
         <v>-3</v>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>H2SO4</t>
         </is>
       </c>
-      <c r="H34" t="n">
+      <c r="I34" t="n">
         <v>25</v>
       </c>
-      <c r="I34" t="n">
+      <c r="J34" t="n">
         <v>120</v>
       </c>
-      <c r="J34" t="n">
+      <c r="K34" t="n">
         <v>0.2630527289865971</v>
       </c>
-      <c r="K34" t="n">
+      <c r="L34" t="n">
         <v>0.00767465614480565</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0.01156822561404582</v>
       </c>
     </row>
     <row r="35">
@@ -1895,27 +1895,27 @@
         <v>1.34</v>
       </c>
       <c r="F35" t="n">
+        <v>0.02500229406906678</v>
+      </c>
+      <c r="G35" t="n">
         <v>-3</v>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>H2SO4</t>
         </is>
       </c>
-      <c r="H35" t="n">
+      <c r="I35" t="n">
         <v>150</v>
       </c>
-      <c r="I35" t="n">
+      <c r="J35" t="n">
         <v>120</v>
       </c>
-      <c r="J35" t="n">
+      <c r="K35" t="n">
         <v>0.2043326847346909</v>
       </c>
-      <c r="K35" t="n">
+      <c r="L35" t="n">
         <v>0.007767049816863809</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0.02500229406906678</v>
       </c>
     </row>
     <row r="36">
@@ -1937,27 +1937,27 @@
         <v>1.5</v>
       </c>
       <c r="F36" t="n">
+        <v>0.01960130850793261</v>
+      </c>
+      <c r="G36" t="n">
         <v>0</v>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>TFAA</t>
         </is>
       </c>
-      <c r="H36" t="n">
+      <c r="I36" t="n">
         <v>80</v>
       </c>
-      <c r="I36" t="n">
+      <c r="J36" t="n">
         <v>120</v>
       </c>
-      <c r="J36" t="n">
+      <c r="K36" t="n">
         <v>0.4194085387363488</v>
       </c>
-      <c r="K36" t="n">
+      <c r="L36" t="n">
         <v>0.007138744490873319</v>
-      </c>
-      <c r="L36" t="n">
-        <v>0.01960130850793261</v>
       </c>
     </row>
     <row r="37">
@@ -1979,27 +1979,27 @@
         <v>1.74</v>
       </c>
       <c r="F37" t="n">
+        <v>0.03045</v>
+      </c>
+      <c r="G37" t="n">
         <v>4.75</v>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>AA</t>
         </is>
       </c>
-      <c r="H37" t="n">
+      <c r="I37" t="n">
         <v>80</v>
       </c>
-      <c r="I37" t="n">
+      <c r="J37" t="n">
         <v>120</v>
       </c>
-      <c r="J37" t="n">
+      <c r="K37" t="n">
         <v>0.07009988673066832</v>
       </c>
-      <c r="K37" t="n">
+      <c r="L37" t="n">
         <v>0.007300635834562852</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0.03045</v>
       </c>
     </row>
     <row r="38">
@@ -2021,27 +2021,27 @@
         <v>1.3</v>
       </c>
       <c r="F38" t="n">
+        <v>0.01576252520552195</v>
+      </c>
+      <c r="G38" t="n">
         <v>1.35</v>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>DClAA</t>
         </is>
       </c>
-      <c r="H38" t="n">
+      <c r="I38" t="n">
         <v>60</v>
       </c>
-      <c r="I38" t="n">
+      <c r="J38" t="n">
         <v>120</v>
       </c>
-      <c r="J38" t="n">
+      <c r="K38" t="n">
         <v>0.2882866114441799</v>
       </c>
-      <c r="K38" t="n">
+      <c r="L38" t="n">
         <v>0.003180866268127996</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0.01576252520552195</v>
       </c>
     </row>
     <row r="39">
@@ -2063,27 +2063,27 @@
         <v>0.54</v>
       </c>
       <c r="F39" t="n">
+        <v>0.008532</v>
+      </c>
+      <c r="G39" t="n">
         <v>-1.37</v>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>HNO3</t>
         </is>
       </c>
-      <c r="H39" t="n">
+      <c r="I39" t="n">
         <v>80</v>
       </c>
-      <c r="I39" t="n">
+      <c r="J39" t="n">
         <v>120</v>
       </c>
-      <c r="J39" t="n">
+      <c r="K39" t="n">
         <v>0.1901637283619527</v>
       </c>
-      <c r="K39" t="n">
+      <c r="L39" t="n">
         <v>0.02277877005716846</v>
-      </c>
-      <c r="L39" t="n">
-        <v>0.01294285714285714</v>
       </c>
     </row>
     <row r="40">
@@ -2105,27 +2105,27 @@
         <v>1.02</v>
       </c>
       <c r="F40" t="n">
+        <v>0.01785</v>
+      </c>
+      <c r="G40" t="n">
         <v>4.75</v>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>AA</t>
         </is>
       </c>
-      <c r="H40" t="n">
+      <c r="I40" t="n">
         <v>100</v>
       </c>
-      <c r="I40" t="n">
+      <c r="J40" t="n">
         <v>120</v>
       </c>
-      <c r="J40" t="n">
+      <c r="K40" t="n">
         <v>0.07456853916169467</v>
       </c>
-      <c r="K40" t="n">
+      <c r="L40" t="n">
         <v>0.01225110715430797</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0.01785</v>
       </c>
     </row>
     <row r="41">
@@ -2147,27 +2147,27 @@
         <v>0.58</v>
       </c>
       <c r="F41" t="n">
+        <v>0.007579172623067276</v>
+      </c>
+      <c r="G41" t="n">
         <v>0</v>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>TFAA</t>
         </is>
       </c>
-      <c r="H41" t="n">
+      <c r="I41" t="n">
         <v>25</v>
       </c>
-      <c r="I41" t="n">
+      <c r="J41" t="n">
         <v>144</v>
       </c>
-      <c r="J41" t="n">
+      <c r="K41" t="n">
         <v>0.1809253347495639</v>
       </c>
-      <c r="K41" t="n">
+      <c r="L41" t="n">
         <v>0.01737897680107168</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0.007579172623067276</v>
       </c>
     </row>
     <row r="42">
@@ -2189,27 +2189,27 @@
         <v>0.5</v>
       </c>
       <c r="F42" t="n">
+        <v>0.006533769502644203</v>
+      </c>
+      <c r="G42" t="n">
         <v>0</v>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>TFAA</t>
         </is>
       </c>
-      <c r="H42" t="n">
+      <c r="I42" t="n">
         <v>120</v>
       </c>
-      <c r="I42" t="n">
+      <c r="J42" t="n">
         <v>168</v>
       </c>
-      <c r="J42" t="n">
+      <c r="K42" t="n">
         <v>0.1041011572783909</v>
       </c>
-      <c r="K42" t="n">
+      <c r="L42" t="n">
         <v>0.01804080108710839</v>
-      </c>
-      <c r="L42" t="n">
-        <v>0.006533769502644203</v>
       </c>
     </row>
     <row r="43">
@@ -2231,27 +2231,27 @@
         <v>0.86</v>
       </c>
       <c r="F43" t="n">
+        <v>0.01123808354454803</v>
+      </c>
+      <c r="G43" t="n">
         <v>0</v>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>TFAA</t>
         </is>
       </c>
-      <c r="H43" t="n">
+      <c r="I43" t="n">
         <v>120</v>
       </c>
-      <c r="I43" t="n">
+      <c r="J43" t="n">
         <v>168</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>0.01123808354454803</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -2273,27 +2273,27 @@
         <v>0.14</v>
       </c>
       <c r="F44" t="n">
+        <v>0.002340740740740741</v>
+      </c>
+      <c r="G44" t="n">
         <v>2.86</v>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>ClAA</t>
         </is>
       </c>
-      <c r="H44" t="n">
+      <c r="I44" t="n">
         <v>120</v>
       </c>
-      <c r="I44" t="n">
+      <c r="J44" t="n">
         <v>144</v>
       </c>
-      <c r="J44" t="n">
+      <c r="K44" t="n">
         <v>0.1823374540725811</v>
       </c>
-      <c r="K44" t="n">
+      <c r="L44" t="n">
         <v>0.02707933980256896</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0.002340740740740741</v>
       </c>
     </row>
     <row r="45">
@@ -2315,27 +2315,27 @@
         <v>0.3</v>
       </c>
       <c r="F45" t="n">
+        <v>0.003920261701586522</v>
+      </c>
+      <c r="G45" t="n">
         <v>0</v>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>TFAA</t>
         </is>
       </c>
-      <c r="H45" t="n">
+      <c r="I45" t="n">
         <v>80</v>
       </c>
-      <c r="I45" t="n">
+      <c r="J45" t="n">
         <v>144</v>
       </c>
-      <c r="J45" t="n">
+      <c r="K45" t="n">
         <v>0.1442814007662858</v>
       </c>
-      <c r="K45" t="n">
+      <c r="L45" t="n">
         <v>0.01014203050641462</v>
-      </c>
-      <c r="L45" t="n">
-        <v>0.003920261701586522</v>
       </c>
     </row>
     <row r="46">
@@ -2357,27 +2357,27 @@
         <v>1.94</v>
       </c>
       <c r="F46" t="n">
+        <v>0.03619735111491757</v>
+      </c>
+      <c r="G46" t="n">
         <v>-3</v>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>H2SO4</t>
         </is>
       </c>
-      <c r="H46" t="n">
+      <c r="I46" t="n">
         <v>80</v>
       </c>
-      <c r="I46" t="n">
+      <c r="J46" t="n">
         <v>144</v>
       </c>
-      <c r="J46" t="n">
+      <c r="K46" t="n">
         <v>0.673447</v>
       </c>
-      <c r="K46" t="n">
+      <c r="L46" t="n">
         <v>0.030644</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0.03619735111491757</v>
       </c>
     </row>
     <row r="47">
@@ -2399,27 +2399,27 @@
         <v>1.46</v>
       </c>
       <c r="F47" t="n">
+        <v>0.01752</v>
+      </c>
+      <c r="G47" t="n">
         <v>-6.3</v>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>HCl</t>
         </is>
       </c>
-      <c r="H47" t="n">
+      <c r="I47" t="n">
         <v>40</v>
       </c>
-      <c r="I47" t="n">
+      <c r="J47" t="n">
         <v>144</v>
       </c>
-      <c r="J47" t="n">
+      <c r="K47" t="n">
         <v>0.3708089071055232</v>
       </c>
-      <c r="K47" t="n">
+      <c r="L47" t="n">
         <v>0.01384116649401547</v>
-      </c>
-      <c r="L47" t="n">
-        <v>0.01752</v>
       </c>
     </row>
     <row r="48">
@@ -2441,27 +2441,27 @@
         <v>1.98</v>
       </c>
       <c r="F48" t="n">
+        <v>0.031284</v>
+      </c>
+      <c r="G48" t="n">
         <v>-1.37</v>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>HNO3</t>
         </is>
       </c>
-      <c r="H48" t="n">
+      <c r="I48" t="n">
         <v>40</v>
       </c>
-      <c r="I48" t="n">
+      <c r="J48" t="n">
         <v>168</v>
       </c>
-      <c r="J48" t="n">
+      <c r="K48" t="n">
         <v>0.5474100263929697</v>
       </c>
-      <c r="K48" t="n">
+      <c r="L48" t="n">
         <v>0.01878171025207462</v>
-      </c>
-      <c r="L48" t="n">
-        <v>0.04745714285714285</v>
       </c>
     </row>
     <row r="49">
@@ -2483,27 +2483,27 @@
         <v>1.78</v>
       </c>
       <c r="F49" t="n">
+        <v>0.02136</v>
+      </c>
+      <c r="G49" t="n">
         <v>-6.3</v>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>HCl</t>
         </is>
       </c>
-      <c r="H49" t="n">
+      <c r="I49" t="n">
         <v>40</v>
       </c>
-      <c r="I49" t="n">
+      <c r="J49" t="n">
         <v>168</v>
       </c>
-      <c r="J49" t="n">
+      <c r="K49" t="n">
         <v>0.4829420457254934</v>
       </c>
-      <c r="K49" t="n">
+      <c r="L49" t="n">
         <v>0.005406627658258763</v>
-      </c>
-      <c r="L49" t="n">
-        <v>0.02136</v>
       </c>
     </row>
     <row r="50">
@@ -2525,27 +2525,27 @@
         <v>0.98</v>
       </c>
       <c r="F50" t="n">
+        <v>0.015484</v>
+      </c>
+      <c r="G50" t="n">
         <v>-1.37</v>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>HNO3</t>
         </is>
       </c>
-      <c r="H50" t="n">
+      <c r="I50" t="n">
         <v>150</v>
       </c>
-      <c r="I50" t="n">
+      <c r="J50" t="n">
         <v>168</v>
       </c>
-      <c r="J50" t="n">
+      <c r="K50" t="n">
         <v>0.09225056697746037</v>
       </c>
-      <c r="K50" t="n">
+      <c r="L50" t="n">
         <v>0.00377727289428494</v>
-      </c>
-      <c r="L50" t="n">
-        <v>0.02348888888888889</v>
       </c>
     </row>
     <row r="51">
@@ -2561,33 +2561,33 @@
         <v>8</v>
       </c>
       <c r="D51" t="n">
-        <v>4.0176</v>
+        <v>4.017599999999999</v>
       </c>
       <c r="E51" t="n">
-        <v>0.34</v>
+        <v>0.339999999999999</v>
       </c>
       <c r="F51" t="n">
+        <v>0.004079999999999988</v>
+      </c>
+      <c r="G51" t="n">
         <v>-6.3</v>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>HCl</t>
         </is>
       </c>
-      <c r="H51" t="n">
+      <c r="I51" t="n">
         <v>80</v>
       </c>
-      <c r="I51" t="n">
+      <c r="J51" t="n">
         <v>168</v>
       </c>
-      <c r="J51" t="n">
+      <c r="K51" t="n">
         <v>0.1715562332788751</v>
       </c>
-      <c r="K51" t="n">
+      <c r="L51" t="n">
         <v>0.0188438642516166</v>
-      </c>
-      <c r="L51" t="n">
-        <v>0.004079999999999988</v>
       </c>
     </row>
     <row r="52">
@@ -2603,33 +2603,33 @@
         <v>8</v>
       </c>
       <c r="D52" t="n">
-        <v>0.5176000000000001</v>
+        <v>0.5175999999999994</v>
       </c>
       <c r="E52" t="n">
         <v>2</v>
       </c>
       <c r="F52" t="n">
+        <v>0.0316</v>
+      </c>
+      <c r="G52" t="n">
         <v>-1.37</v>
       </c>
-      <c r="G52" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>HNO3</t>
         </is>
       </c>
-      <c r="H52" t="n">
+      <c r="I52" t="n">
         <v>40</v>
       </c>
-      <c r="I52" t="n">
+      <c r="J52" t="n">
         <v>6.3</v>
       </c>
-      <c r="J52" t="n">
+      <c r="K52" t="n">
         <v>0.54717</v>
       </c>
-      <c r="K52" t="n">
+      <c r="L52" t="n">
         <v>0.056625</v>
-      </c>
-      <c r="L52" t="n">
-        <v>0.04793650793650794</v>
       </c>
     </row>
     <row r="53">
@@ -2651,27 +2651,27 @@
         <v>1.3</v>
       </c>
       <c r="F53" t="n">
+        <v>0.02425595693267672</v>
+      </c>
+      <c r="G53" t="n">
         <v>-3</v>
       </c>
-      <c r="G53" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>H2SO4</t>
         </is>
       </c>
-      <c r="H53" t="n">
+      <c r="I53" t="n">
         <v>25</v>
       </c>
-      <c r="I53" t="n">
+      <c r="J53" t="n">
         <v>24</v>
       </c>
-      <c r="J53" t="n">
+      <c r="K53" t="n">
         <v>0.1181895517836812</v>
       </c>
-      <c r="K53" t="n">
+      <c r="L53" t="n">
         <v>0.001952107265640295</v>
-      </c>
-      <c r="L53" t="n">
-        <v>0.02425595693267672</v>
       </c>
     </row>
     <row r="54">
@@ -2693,27 +2693,27 @@
         <v>1.8</v>
       </c>
       <c r="F54" t="n">
+        <v>0.0315</v>
+      </c>
+      <c r="G54" t="n">
         <v>4.75</v>
       </c>
-      <c r="G54" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>AA</t>
         </is>
       </c>
-      <c r="H54" t="n">
+      <c r="I54" t="n">
         <v>100</v>
       </c>
-      <c r="I54" t="n">
+      <c r="J54" t="n">
         <v>24</v>
       </c>
-      <c r="J54" t="n">
+      <c r="K54" t="n">
         <v>0.06414873068980369</v>
       </c>
-      <c r="K54" t="n">
+      <c r="L54" t="n">
         <v>0.004474588118301689</v>
-      </c>
-      <c r="L54" t="n">
-        <v>0.0315</v>
       </c>
     </row>
     <row r="55">
@@ -2735,27 +2735,27 @@
         <v>1.2</v>
       </c>
       <c r="F55" t="n">
+        <v>0.02239011409170159</v>
+      </c>
+      <c r="G55" t="n">
         <v>-3</v>
       </c>
-      <c r="G55" t="inlineStr">
+      <c r="H55" t="inlineStr">
         <is>
           <t>H2SO4</t>
         </is>
       </c>
-      <c r="H55" t="n">
+      <c r="I55" t="n">
         <v>25</v>
       </c>
-      <c r="I55" t="n">
+      <c r="J55" t="n">
         <v>24</v>
       </c>
-      <c r="J55" t="n">
+      <c r="K55" t="n">
         <v>0.1598736875477312</v>
       </c>
-      <c r="K55" t="n">
+      <c r="L55" t="n">
         <v>0.002506921623102426</v>
-      </c>
-      <c r="L55" t="n">
-        <v>0.02239011409170159</v>
       </c>
     </row>
     <row r="56">
@@ -2777,27 +2777,27 @@
         <v>1.1</v>
       </c>
       <c r="F56" t="n">
+        <v>0.01437429290581725</v>
+      </c>
+      <c r="G56" t="n">
         <v>0</v>
       </c>
-      <c r="G56" t="inlineStr">
+      <c r="H56" t="inlineStr">
         <is>
           <t>TFAA</t>
         </is>
       </c>
-      <c r="H56" t="n">
+      <c r="I56" t="n">
         <v>100</v>
       </c>
-      <c r="I56" t="n">
+      <c r="J56" t="n">
         <v>24</v>
       </c>
-      <c r="J56" t="n">
+      <c r="K56" t="n">
         <v>0.1810040002773642</v>
       </c>
-      <c r="K56" t="n">
+      <c r="L56" t="n">
         <v>0.01436698163814775</v>
-      </c>
-      <c r="L56" t="n">
-        <v>0.01437429290581725</v>
       </c>
     </row>
     <row r="57">
@@ -2819,27 +2819,27 @@
         <v>1.1</v>
       </c>
       <c r="F57" t="n">
+        <v>0.01839153439153439</v>
+      </c>
+      <c r="G57" t="n">
         <v>2.86</v>
       </c>
-      <c r="G57" t="inlineStr">
+      <c r="H57" t="inlineStr">
         <is>
           <t>ClAA</t>
         </is>
       </c>
-      <c r="H57" t="n">
+      <c r="I57" t="n">
         <v>60</v>
       </c>
-      <c r="I57" t="n">
+      <c r="J57" t="n">
         <v>48</v>
       </c>
-      <c r="J57" t="n">
+      <c r="K57" t="n">
         <v>0.1249148166801625</v>
       </c>
-      <c r="K57" t="n">
+      <c r="L57" t="n">
         <v>0.007078793806606963</v>
-      </c>
-      <c r="L57" t="n">
-        <v>0.01839153439153439</v>
       </c>
     </row>
     <row r="58">
@@ -2861,27 +2861,27 @@
         <v>0.2</v>
       </c>
       <c r="F58" t="n">
+        <v>0.0024</v>
+      </c>
+      <c r="G58" t="n">
         <v>-6.3</v>
       </c>
-      <c r="G58" t="inlineStr">
+      <c r="H58" t="inlineStr">
         <is>
           <t>HCl</t>
         </is>
       </c>
-      <c r="H58" t="n">
+      <c r="I58" t="n">
         <v>150</v>
       </c>
-      <c r="I58" t="n">
+      <c r="J58" t="n">
         <v>48</v>
       </c>
-      <c r="J58" t="n">
+      <c r="K58" t="n">
         <v>0.1205832786667209</v>
       </c>
-      <c r="K58" t="n">
+      <c r="L58" t="n">
         <v>0.01566811116938537</v>
-      </c>
-      <c r="L58" t="n">
-        <v>0.0024</v>
       </c>
     </row>
     <row r="59">
@@ -2903,27 +2903,27 @@
         <v>2</v>
       </c>
       <c r="F59" t="n">
+        <v>0.0316</v>
+      </c>
+      <c r="G59" t="n">
         <v>-1.37</v>
       </c>
-      <c r="G59" t="inlineStr">
+      <c r="H59" t="inlineStr">
         <is>
           <t>HNO3</t>
         </is>
       </c>
-      <c r="H59" t="n">
+      <c r="I59" t="n">
         <v>100</v>
       </c>
-      <c r="I59" t="n">
+      <c r="J59" t="n">
         <v>48</v>
       </c>
-      <c r="J59" t="n">
+      <c r="K59" t="n">
         <v>0.53918</v>
       </c>
-      <c r="K59" t="n">
+      <c r="L59" t="n">
         <v>0.007627</v>
-      </c>
-      <c r="L59" t="n">
-        <v>0.04793650793650794</v>
       </c>
     </row>
     <row r="60">
@@ -2945,27 +2945,27 @@
         <v>0.5</v>
       </c>
       <c r="F60" t="n">
+        <v>0.006062509694431518</v>
+      </c>
+      <c r="G60" t="n">
         <v>1.35</v>
       </c>
-      <c r="G60" t="inlineStr">
+      <c r="H60" t="inlineStr">
         <is>
           <t>DClAA</t>
         </is>
       </c>
-      <c r="H60" t="n">
+      <c r="I60" t="n">
         <v>60</v>
       </c>
-      <c r="I60" t="n">
+      <c r="J60" t="n">
         <v>72</v>
       </c>
-      <c r="J60" t="n">
+      <c r="K60" t="n">
         <v>0.1391214464564154</v>
       </c>
-      <c r="K60" t="n">
+      <c r="L60" t="n">
         <v>0.008789219397616026</v>
-      </c>
-      <c r="L60" t="n">
-        <v>0.006062509694431518</v>
       </c>
     </row>
     <row r="61">
@@ -2987,27 +2987,27 @@
         <v>0.1</v>
       </c>
       <c r="F61" t="n">
+        <v>0.0012</v>
+      </c>
+      <c r="G61" t="n">
         <v>-6.3</v>
       </c>
-      <c r="G61" t="inlineStr">
+      <c r="H61" t="inlineStr">
         <is>
           <t>HCl</t>
         </is>
       </c>
-      <c r="H61" t="n">
+      <c r="I61" t="n">
         <v>80</v>
       </c>
-      <c r="I61" t="n">
+      <c r="J61" t="n">
         <v>72</v>
       </c>
-      <c r="J61" t="n">
+      <c r="K61" t="n">
         <v>0.06327044983966791</v>
       </c>
-      <c r="K61" t="n">
+      <c r="L61" t="n">
         <v>0.001382149671713079</v>
-      </c>
-      <c r="L61" t="n">
-        <v>0.0012</v>
       </c>
     </row>
     <row r="62">
@@ -3029,27 +3029,27 @@
         <v>0.4</v>
       </c>
       <c r="F62" t="n">
+        <v>0.006687830687830689</v>
+      </c>
+      <c r="G62" t="n">
         <v>2.86</v>
       </c>
-      <c r="G62" t="inlineStr">
+      <c r="H62" t="inlineStr">
         <is>
           <t>ClAA</t>
         </is>
       </c>
-      <c r="H62" t="n">
+      <c r="I62" t="n">
         <v>120</v>
       </c>
-      <c r="I62" t="n">
+      <c r="J62" t="n">
         <v>72</v>
       </c>
-      <c r="J62" t="n">
+      <c r="K62" t="n">
         <v>0.3277251423111026</v>
       </c>
-      <c r="K62" t="n">
+      <c r="L62" t="n">
         <v>0.0201311805918861</v>
-      </c>
-      <c r="L62" t="n">
-        <v>0.006687830687830689</v>
       </c>
     </row>
     <row r="63">
@@ -3071,27 +3071,27 @@
         <v>0.4</v>
       </c>
       <c r="F63" t="n">
+        <v>0.006687830687830689</v>
+      </c>
+      <c r="G63" t="n">
         <v>2.86</v>
       </c>
-      <c r="G63" t="inlineStr">
+      <c r="H63" t="inlineStr">
         <is>
           <t>ClAA</t>
         </is>
       </c>
-      <c r="H63" t="n">
+      <c r="I63" t="n">
         <v>100</v>
       </c>
-      <c r="I63" t="n">
+      <c r="J63" t="n">
         <v>96</v>
       </c>
-      <c r="J63" t="n">
+      <c r="K63" t="n">
         <v>0.2773996855145927</v>
       </c>
-      <c r="K63" t="n">
+      <c r="L63" t="n">
         <v>0.006398191544802129</v>
-      </c>
-      <c r="L63" t="n">
-        <v>0.006687830687830689</v>
       </c>
     </row>
     <row r="64">
@@ -3113,27 +3113,27 @@
         <v>1.7</v>
       </c>
       <c r="F64" t="n">
+        <v>0.0204</v>
+      </c>
+      <c r="G64" t="n">
         <v>-6.3</v>
       </c>
-      <c r="G64" t="inlineStr">
+      <c r="H64" t="inlineStr">
         <is>
           <t>HCl</t>
         </is>
       </c>
-      <c r="H64" t="n">
+      <c r="I64" t="n">
         <v>100</v>
       </c>
-      <c r="I64" t="n">
+      <c r="J64" t="n">
         <v>120</v>
       </c>
-      <c r="J64" t="n">
+      <c r="K64" t="n">
         <v>0.6197281916158834</v>
       </c>
-      <c r="K64" t="n">
+      <c r="L64" t="n">
         <v>0.04416414483288433</v>
-      </c>
-      <c r="L64" t="n">
-        <v>0.0204</v>
       </c>
     </row>
     <row r="65">
@@ -3155,27 +3155,27 @@
         <v>1.9</v>
       </c>
       <c r="F65" t="n">
+        <v>0.02482832411004797</v>
+      </c>
+      <c r="G65" t="n">
         <v>0</v>
       </c>
-      <c r="G65" t="inlineStr">
+      <c r="H65" t="inlineStr">
         <is>
           <t>TFAA</t>
         </is>
-      </c>
-      <c r="H65" t="n">
-        <v>120</v>
       </c>
       <c r="I65" t="n">
         <v>120</v>
       </c>
       <c r="J65" t="n">
+        <v>120</v>
+      </c>
+      <c r="K65" t="n">
         <v>0.5048395421063365</v>
       </c>
-      <c r="K65" t="n">
+      <c r="L65" t="n">
         <v>0.02438900055090165</v>
-      </c>
-      <c r="L65" t="n">
-        <v>0.02482832411004797</v>
       </c>
     </row>
     <row r="66">
@@ -3197,27 +3197,27 @@
         <v>0.2</v>
       </c>
       <c r="F66" t="n">
+        <v>0.0024</v>
+      </c>
+      <c r="G66" t="n">
         <v>-6.3</v>
       </c>
-      <c r="G66" t="inlineStr">
+      <c r="H66" t="inlineStr">
         <is>
           <t>HCl</t>
         </is>
       </c>
-      <c r="H66" t="n">
+      <c r="I66" t="n">
         <v>80</v>
       </c>
-      <c r="I66" t="n">
+      <c r="J66" t="n">
         <v>144</v>
       </c>
-      <c r="J66" t="n">
+      <c r="K66" t="n">
         <v>0.08077745550824002</v>
       </c>
-      <c r="K66" t="n">
+      <c r="L66" t="n">
         <v>0.007634307750348884</v>
-      </c>
-      <c r="L66" t="n">
-        <v>0.0024</v>
       </c>
     </row>
     <row r="67">
@@ -3239,27 +3239,27 @@
         <v>0.6</v>
       </c>
       <c r="F67" t="n">
+        <v>0.0072</v>
+      </c>
+      <c r="G67" t="n">
         <v>-6.3</v>
       </c>
-      <c r="G67" t="inlineStr">
+      <c r="H67" t="inlineStr">
         <is>
           <t>HCl</t>
         </is>
       </c>
-      <c r="H67" t="n">
+      <c r="I67" t="n">
         <v>100</v>
       </c>
-      <c r="I67" t="n">
+      <c r="J67" t="n">
         <v>144</v>
       </c>
-      <c r="J67" t="n">
+      <c r="K67" t="n">
         <v>0.30779346253759</v>
       </c>
-      <c r="K67" t="n">
+      <c r="L67" t="n">
         <v>0.02270451780925964</v>
-      </c>
-      <c r="L67" t="n">
-        <v>0.0072</v>
       </c>
     </row>
     <row r="68">
@@ -3281,27 +3281,27 @@
         <v>0.9</v>
       </c>
       <c r="F68" t="n">
+        <v>0.01176078510475957</v>
+      </c>
+      <c r="G68" t="n">
         <v>0</v>
       </c>
-      <c r="G68" t="inlineStr">
+      <c r="H68" t="inlineStr">
         <is>
           <t>TFAA</t>
         </is>
       </c>
-      <c r="H68" t="n">
+      <c r="I68" t="n">
         <v>120</v>
       </c>
-      <c r="I68" t="n">
+      <c r="J68" t="n">
         <v>144</v>
       </c>
-      <c r="J68" t="n">
+      <c r="K68" t="n">
         <v>0.1069564219829476</v>
       </c>
-      <c r="K68" t="n">
+      <c r="L68" t="n">
         <v>0.007676370430187957</v>
-      </c>
-      <c r="L68" t="n">
-        <v>0.01176078510475957</v>
       </c>
     </row>
     <row r="69">
@@ -3323,27 +3323,27 @@
         <v>0.7</v>
       </c>
       <c r="F69" t="n">
+        <v>0.01225</v>
+      </c>
+      <c r="G69" t="n">
         <v>4.75</v>
       </c>
-      <c r="G69" t="inlineStr">
+      <c r="H69" t="inlineStr">
         <is>
           <t>AA</t>
         </is>
       </c>
-      <c r="H69" t="n">
+      <c r="I69" t="n">
         <v>40</v>
       </c>
-      <c r="I69" t="n">
+      <c r="J69" t="n">
         <v>144</v>
       </c>
-      <c r="J69" t="n">
+      <c r="K69" t="n">
         <v>0.09486017717979968</v>
       </c>
-      <c r="K69" t="n">
+      <c r="L69" t="n">
         <v>0.002944541860253135</v>
-      </c>
-      <c r="L69" t="n">
-        <v>0.01225</v>
       </c>
     </row>
     <row r="70">
@@ -3365,27 +3365,27 @@
         <v>1.6</v>
       </c>
       <c r="F70" t="n">
+        <v>0.01940003102218086</v>
+      </c>
+      <c r="G70" t="n">
         <v>1.35</v>
       </c>
-      <c r="G70" t="inlineStr">
+      <c r="H70" t="inlineStr">
         <is>
           <t>DClAA</t>
         </is>
       </c>
-      <c r="H70" t="n">
+      <c r="I70" t="n">
         <v>150</v>
       </c>
-      <c r="I70" t="n">
+      <c r="J70" t="n">
         <v>144</v>
       </c>
-      <c r="J70" t="n">
+      <c r="K70" t="n">
         <v>0.3093088093047255</v>
       </c>
-      <c r="K70" t="n">
+      <c r="L70" t="n">
         <v>0.03525098265796385</v>
-      </c>
-      <c r="L70" t="n">
-        <v>0.01940003102218086</v>
       </c>
     </row>
     <row r="71">
@@ -3407,27 +3407,27 @@
         <v>0.9</v>
       </c>
       <c r="F71" t="n">
+        <v>0.01679258556877619</v>
+      </c>
+      <c r="G71" t="n">
         <v>-3</v>
       </c>
-      <c r="G71" t="inlineStr">
+      <c r="H71" t="inlineStr">
         <is>
           <t>H2SO4</t>
         </is>
       </c>
-      <c r="H71" t="n">
+      <c r="I71" t="n">
         <v>25</v>
       </c>
-      <c r="I71" t="n">
+      <c r="J71" t="n">
         <v>144</v>
       </c>
-      <c r="J71" t="n">
+      <c r="K71" t="n">
         <v>0.4764343251173423</v>
       </c>
-      <c r="K71" t="n">
+      <c r="L71" t="n">
         <v>0.004150822325265282</v>
-      </c>
-      <c r="L71" t="n">
-        <v>0.01679258556877619</v>
       </c>
     </row>
     <row r="72">
@@ -3449,27 +3449,27 @@
         <v>0.96</v>
       </c>
       <c r="F72" t="n">
+        <v>0.01254483744507687</v>
+      </c>
+      <c r="G72" t="n">
         <v>0</v>
       </c>
-      <c r="G72" t="inlineStr">
+      <c r="H72" t="inlineStr">
         <is>
           <t>TFAA</t>
         </is>
       </c>
-      <c r="H72" t="n">
+      <c r="I72" t="n">
         <v>150</v>
       </c>
-      <c r="I72" t="n">
+      <c r="J72" t="n">
         <v>144</v>
       </c>
-      <c r="J72" t="n">
+      <c r="K72" t="n">
         <v>0.01239390105337358</v>
       </c>
-      <c r="K72" t="n">
+      <c r="L72" t="n">
         <v>0.002168160724321327</v>
-      </c>
-      <c r="L72" t="n">
-        <v>0.01254483744507687</v>
       </c>
     </row>
     <row r="73">
@@ -3491,27 +3491,27 @@
         <v>0.86</v>
       </c>
       <c r="F73" t="n">
+        <v>0.01123808354454803</v>
+      </c>
+      <c r="G73" t="n">
         <v>0</v>
       </c>
-      <c r="G73" t="inlineStr">
+      <c r="H73" t="inlineStr">
         <is>
           <t>TFAA</t>
         </is>
       </c>
-      <c r="H73" t="n">
+      <c r="I73" t="n">
         <v>100</v>
       </c>
-      <c r="I73" t="n">
+      <c r="J73" t="n">
         <v>144</v>
       </c>
-      <c r="J73" t="n">
+      <c r="K73" t="n">
         <v>0.3115888268292558</v>
       </c>
-      <c r="K73" t="n">
+      <c r="L73" t="n">
         <v>0.01115858314536873</v>
-      </c>
-      <c r="L73" t="n">
-        <v>0.01123808354454803</v>
       </c>
     </row>
     <row r="74">
@@ -3530,30 +3530,30 @@
         <v>0.35</v>
       </c>
       <c r="E74" t="n">
-        <v>0.04</v>
+        <v>0.03921830841967212</v>
       </c>
       <c r="F74" t="n">
+        <v>0.0007317519999999998</v>
+      </c>
+      <c r="G74" t="n">
         <v>-3</v>
       </c>
-      <c r="G74" t="inlineStr">
+      <c r="H74" t="inlineStr">
         <is>
           <t>H2SO4</t>
         </is>
       </c>
-      <c r="H74" t="n">
+      <c r="I74" t="n">
         <v>25</v>
       </c>
-      <c r="I74" t="n">
+      <c r="J74" t="n">
         <v>1.6</v>
-      </c>
-      <c r="J74" t="n">
-        <v>0</v>
       </c>
       <c r="K74" t="n">
         <v>0</v>
       </c>
       <c r="L74" t="n">
-        <v>0.000731752</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -3575,27 +3575,27 @@
         <v>4.3</v>
       </c>
       <c r="F75" t="n">
+        <v>0.0516</v>
+      </c>
+      <c r="G75" t="n">
         <v>-6.3</v>
       </c>
-      <c r="G75" t="inlineStr">
+      <c r="H75" t="inlineStr">
         <is>
           <t>HCl</t>
         </is>
       </c>
-      <c r="H75" t="n">
+      <c r="I75" t="n">
         <v>80</v>
       </c>
-      <c r="I75" t="n">
+      <c r="J75" t="n">
         <v>6</v>
       </c>
-      <c r="J75" t="n">
+      <c r="K75" t="n">
         <v>0.739913</v>
       </c>
-      <c r="K75" t="n">
+      <c r="L75" t="n">
         <v>0.017729</v>
-      </c>
-      <c r="L75" t="n">
-        <v>0.049973795</v>
       </c>
     </row>
     <row r="76">
@@ -3614,30 +3614,30 @@
         <v>4</v>
       </c>
       <c r="E76" t="n">
-        <v>2.69</v>
+        <v>2.689632514285714</v>
       </c>
       <c r="F76" t="n">
+        <v>0.047068569</v>
+      </c>
+      <c r="G76" t="n">
         <v>4.75</v>
       </c>
-      <c r="G76" t="inlineStr">
+      <c r="H76" t="inlineStr">
         <is>
           <t>AA</t>
         </is>
       </c>
-      <c r="H76" t="n">
+      <c r="I76" t="n">
         <v>80</v>
       </c>
-      <c r="I76" t="n">
+      <c r="J76" t="n">
         <v>24</v>
       </c>
-      <c r="J76" t="n">
+      <c r="K76" t="n">
         <v>0.05883258382055143</v>
       </c>
-      <c r="K76" t="n">
+      <c r="L76" t="n">
         <v>0.003934471032000398</v>
-      </c>
-      <c r="L76" t="n">
-        <v>0.047068569</v>
       </c>
     </row>
     <row r="77">
@@ -3656,30 +3656,30 @@
         <v>4</v>
       </c>
       <c r="E77" t="n">
-        <v>0.21</v>
+        <v>0.2136465142857143</v>
       </c>
       <c r="F77" t="n">
+        <v>0.003738814</v>
+      </c>
+      <c r="G77" t="n">
         <v>4.75</v>
       </c>
-      <c r="G77" t="inlineStr">
+      <c r="H77" t="inlineStr">
         <is>
           <t>AA</t>
         </is>
       </c>
-      <c r="H77" t="n">
+      <c r="I77" t="n">
         <v>40</v>
       </c>
-      <c r="I77" t="n">
+      <c r="J77" t="n">
         <v>24</v>
-      </c>
-      <c r="J77" t="n">
-        <v>0</v>
       </c>
       <c r="K77" t="n">
         <v>0</v>
       </c>
       <c r="L77" t="n">
-        <v>0.003738814</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -3698,30 +3698,30 @@
         <v>3.98</v>
       </c>
       <c r="E78" t="n">
-        <v>0.13</v>
+        <v>0.1255922857142857</v>
       </c>
       <c r="F78" t="n">
+        <v>0.002197865</v>
+      </c>
+      <c r="G78" t="n">
         <v>4.75</v>
       </c>
-      <c r="G78" t="inlineStr">
+      <c r="H78" t="inlineStr">
         <is>
           <t>AA</t>
         </is>
       </c>
-      <c r="H78" t="n">
+      <c r="I78" t="n">
         <v>150</v>
       </c>
-      <c r="I78" t="n">
+      <c r="J78" t="n">
         <v>24</v>
       </c>
-      <c r="J78" t="n">
+      <c r="K78" t="n">
         <v>0.0821820579096042</v>
       </c>
-      <c r="K78" t="n">
+      <c r="L78" t="n">
         <v>0.02166006208083688</v>
-      </c>
-      <c r="L78" t="n">
-        <v>0.002197865</v>
       </c>
     </row>
     <row r="79">
@@ -3737,33 +3737,33 @@
         <v>8</v>
       </c>
       <c r="D79" t="n">
-        <v>6.7456</v>
+        <v>6.745756786266094</v>
       </c>
       <c r="E79" t="n">
-        <v>4.29</v>
+        <v>4.290244978540772</v>
       </c>
       <c r="F79" t="n">
+        <v>0.05148293974248927</v>
+      </c>
+      <c r="G79" t="n">
         <v>-6.3</v>
       </c>
-      <c r="G79" t="inlineStr">
+      <c r="H79" t="inlineStr">
         <is>
           <t>HCl</t>
         </is>
       </c>
-      <c r="H79" t="n">
+      <c r="I79" t="n">
         <v>60</v>
       </c>
-      <c r="I79" t="n">
+      <c r="J79" t="n">
         <v>48</v>
       </c>
-      <c r="J79" t="n">
+      <c r="K79" t="n">
         <v>0.6101315985499985</v>
       </c>
-      <c r="K79" t="n">
+      <c r="L79" t="n">
         <v>0.03363891306309017</v>
-      </c>
-      <c r="L79" t="n">
-        <v>0.049981354</v>
       </c>
     </row>
     <row r="80">
@@ -3779,33 +3779,33 @@
         <v>8</v>
       </c>
       <c r="D80" t="n">
-        <v>6.7456</v>
+        <v>6.745756786266094</v>
       </c>
       <c r="E80" t="n">
-        <v>1.01</v>
+        <v>1.011284177483444</v>
       </c>
       <c r="F80" t="n">
+        <v>0.01597829000423842</v>
+      </c>
+      <c r="G80" t="n">
         <v>-1.37</v>
       </c>
-      <c r="G80" t="inlineStr">
+      <c r="H80" t="inlineStr">
         <is>
           <t>HNO3</t>
         </is>
       </c>
-      <c r="H80" t="n">
+      <c r="I80" t="n">
         <v>120</v>
       </c>
-      <c r="I80" t="n">
+      <c r="J80" t="n">
         <v>48</v>
       </c>
-      <c r="J80" t="n">
+      <c r="K80" t="n">
         <v>0.555832</v>
       </c>
-      <c r="K80" t="n">
+      <c r="L80" t="n">
         <v>0.026793</v>
-      </c>
-      <c r="L80" t="n">
-        <v>0.024238716</v>
       </c>
     </row>
     <row r="81">
@@ -3821,33 +3821,33 @@
         <v>8</v>
       </c>
       <c r="D81" t="n">
-        <v>7.389200000000001</v>
+        <v>7.390854221459228</v>
       </c>
       <c r="E81" t="n">
-        <v>4.28</v>
+        <v>4.282584721030043</v>
       </c>
       <c r="F81" t="n">
+        <v>0.05139101665236051</v>
+      </c>
+      <c r="G81" t="n">
         <v>-6.3</v>
       </c>
-      <c r="G81" t="inlineStr">
+      <c r="H81" t="inlineStr">
         <is>
           <t>HCl</t>
         </is>
       </c>
-      <c r="H81" t="n">
+      <c r="I81" t="n">
         <v>60</v>
       </c>
-      <c r="I81" t="n">
+      <c r="J81" t="n">
         <v>72</v>
       </c>
-      <c r="J81" t="n">
+      <c r="K81" t="n">
         <v>0.8410570000000001</v>
       </c>
-      <c r="K81" t="n">
+      <c r="L81" t="n">
         <v>0.030264</v>
-      </c>
-      <c r="L81" t="n">
-        <v>0.049892112</v>
       </c>
     </row>
     <row r="82">
@@ -3866,30 +3866,30 @@
         <v>4</v>
       </c>
       <c r="E82" t="n">
-        <v>2.22</v>
+        <v>2.223536114285714</v>
       </c>
       <c r="F82" t="n">
+        <v>0.03891188199999999</v>
+      </c>
+      <c r="G82" t="n">
         <v>4.75</v>
       </c>
-      <c r="G82" t="inlineStr">
+      <c r="H82" t="inlineStr">
         <is>
           <t>AA</t>
         </is>
       </c>
-      <c r="H82" t="n">
+      <c r="I82" t="n">
         <v>80</v>
       </c>
-      <c r="I82" t="n">
+      <c r="J82" t="n">
         <v>72</v>
       </c>
-      <c r="J82" t="n">
+      <c r="K82" t="n">
         <v>0.1340418207997361</v>
       </c>
-      <c r="K82" t="n">
+      <c r="L82" t="n">
         <v>0.01600995879612329</v>
-      </c>
-      <c r="L82" t="n">
-        <v>0.038911882</v>
       </c>
     </row>
     <row r="83">
@@ -3908,30 +3908,30 @@
         <v>4</v>
       </c>
       <c r="E83" t="n">
-        <v>2.85</v>
+        <v>2.852042835679865</v>
       </c>
       <c r="F83" t="n">
+        <v>0.03726918099999998</v>
+      </c>
+      <c r="G83" t="n">
         <v>0</v>
       </c>
-      <c r="G83" t="inlineStr">
+      <c r="H83" t="inlineStr">
         <is>
           <t>TFAA</t>
         </is>
       </c>
-      <c r="H83" t="n">
+      <c r="I83" t="n">
         <v>100</v>
       </c>
-      <c r="I83" t="n">
+      <c r="J83" t="n">
         <v>72</v>
       </c>
-      <c r="J83" t="n">
+      <c r="K83" t="n">
         <v>1.004604372184674</v>
       </c>
-      <c r="K83" t="n">
+      <c r="L83" t="n">
         <v>0.04417427720477145</v>
-      </c>
-      <c r="L83" t="n">
-        <v>0.037269181</v>
       </c>
     </row>
     <row r="84">
@@ -3947,33 +3947,33 @@
         <v>8</v>
       </c>
       <c r="D84" t="n">
-        <v>3.262799999999999</v>
+        <v>3.263232398283262</v>
       </c>
       <c r="E84" t="n">
-        <v>4.27</v>
+        <v>4.270675622317596</v>
       </c>
       <c r="F84" t="n">
+        <v>0.05124810746781116</v>
+      </c>
+      <c r="G84" t="n">
         <v>-6.3</v>
       </c>
-      <c r="G84" t="inlineStr">
+      <c r="H84" t="inlineStr">
         <is>
           <t>HCl</t>
         </is>
       </c>
-      <c r="H84" t="n">
+      <c r="I84" t="n">
         <v>150</v>
       </c>
-      <c r="I84" t="n">
+      <c r="J84" t="n">
         <v>96</v>
       </c>
-      <c r="J84" t="n">
+      <c r="K84" t="n">
         <v>0.718392</v>
       </c>
-      <c r="K84" t="n">
+      <c r="L84" t="n">
         <v>0.036942</v>
-      </c>
-      <c r="L84" t="n">
-        <v>0.049753371</v>
       </c>
     </row>
     <row r="85">
@@ -3992,30 +3992,30 @@
         <v>0.63</v>
       </c>
       <c r="E85" t="n">
-        <v>2.46</v>
+        <v>2.457042339030319</v>
       </c>
       <c r="F85" t="n">
+        <v>0.029791686</v>
+      </c>
+      <c r="G85" t="n">
         <v>1.35</v>
       </c>
-      <c r="G85" t="inlineStr">
+      <c r="H85" t="inlineStr">
         <is>
           <t>DClAA</t>
         </is>
       </c>
-      <c r="H85" t="n">
+      <c r="I85" t="n">
         <v>60</v>
       </c>
-      <c r="I85" t="n">
+      <c r="J85" t="n">
         <v>96</v>
       </c>
-      <c r="J85" t="n">
+      <c r="K85" t="n">
         <v>0.481811</v>
       </c>
-      <c r="K85" t="n">
+      <c r="L85" t="n">
         <v>0.005835</v>
-      </c>
-      <c r="L85" t="n">
-        <v>0.029791686</v>
       </c>
     </row>
     <row r="86">
@@ -4031,33 +4031,33 @@
         <v>8</v>
       </c>
       <c r="D86" t="n">
-        <v>6.732799999999999</v>
+        <v>6.733232398283262</v>
       </c>
       <c r="E86" t="n">
-        <v>0.28</v>
+        <v>0.2812300390728477</v>
       </c>
       <c r="F86" t="n">
+        <v>0.004443434617350994</v>
+      </c>
+      <c r="G86" t="n">
         <v>-1.37</v>
       </c>
-      <c r="G86" t="inlineStr">
+      <c r="H86" t="inlineStr">
         <is>
           <t>HNO3</t>
         </is>
       </c>
-      <c r="H86" t="n">
+      <c r="I86" t="n">
         <v>80</v>
       </c>
-      <c r="I86" t="n">
+      <c r="J86" t="n">
         <v>96</v>
       </c>
-      <c r="J86" t="n">
+      <c r="K86" t="n">
         <v>0.174595</v>
       </c>
-      <c r="K86" t="n">
+      <c r="L86" t="n">
         <v>0.010383</v>
-      </c>
-      <c r="L86" t="n">
-        <v>0.006740593</v>
       </c>
     </row>
     <row r="87">
@@ -4073,33 +4073,33 @@
         <v>8</v>
       </c>
       <c r="D87" t="n">
-        <v>5.5844</v>
+        <v>5.581814564806868</v>
       </c>
       <c r="E87" t="n">
-        <v>4.21</v>
+        <v>4.205960257510729</v>
       </c>
       <c r="F87" t="n">
+        <v>0.05047152309012876</v>
+      </c>
+      <c r="G87" t="n">
         <v>-6.3</v>
       </c>
-      <c r="G87" t="inlineStr">
+      <c r="H87" t="inlineStr">
         <is>
           <t>HCl</t>
         </is>
       </c>
-      <c r="H87" t="n">
+      <c r="I87" t="n">
         <v>25</v>
       </c>
-      <c r="I87" t="n">
+      <c r="J87" t="n">
         <v>120</v>
       </c>
-      <c r="J87" t="n">
+      <c r="K87" t="n">
         <v>0.142452</v>
       </c>
-      <c r="K87" t="n">
+      <c r="L87" t="n">
         <v>0.012425</v>
-      </c>
-      <c r="L87" t="n">
-        <v>0.048999437</v>
       </c>
     </row>
     <row r="88">
@@ -4119,27 +4119,27 @@
       </c>
       <c r="E88" t="inlineStr"/>
       <c r="F88" t="n">
+        <v>0.049607274</v>
+      </c>
+      <c r="G88" t="n">
         <v>2.86</v>
       </c>
-      <c r="G88" t="inlineStr">
+      <c r="H88" t="inlineStr">
         <is>
           <t>ClAA</t>
         </is>
-      </c>
-      <c r="H88" t="n">
-        <v>120</v>
       </c>
       <c r="I88" t="n">
         <v>120</v>
       </c>
       <c r="J88" t="n">
+        <v>120</v>
+      </c>
+      <c r="K88" t="n">
         <v>0.05776106898651084</v>
       </c>
-      <c r="K88" t="n">
+      <c r="L88" t="n">
         <v>0.0008919103527505447</v>
-      </c>
-      <c r="L88" t="n">
-        <v>0.049607274</v>
       </c>
     </row>
     <row r="89">
@@ -4158,30 +4158,30 @@
         <v>0.05</v>
       </c>
       <c r="E89" t="n">
-        <v>2.66</v>
+        <v>2.66313855104918</v>
       </c>
       <c r="F89" t="n">
+        <v>0.04968998</v>
+      </c>
+      <c r="G89" t="n">
         <v>-3</v>
       </c>
-      <c r="G89" t="inlineStr">
+      <c r="H89" t="inlineStr">
         <is>
           <t>H2SO4</t>
         </is>
       </c>
-      <c r="H89" t="n">
+      <c r="I89" t="n">
         <v>40</v>
       </c>
-      <c r="I89" t="n">
+      <c r="J89" t="n">
         <v>120</v>
       </c>
-      <c r="J89" t="n">
+      <c r="K89" t="n">
         <v>0.3361843197596358</v>
       </c>
-      <c r="K89" t="n">
+      <c r="L89" t="n">
         <v>0.02014761510042591</v>
-      </c>
-      <c r="L89" t="n">
-        <v>0.04968998</v>
       </c>
     </row>
     <row r="90">
@@ -4200,30 +4200,30 @@
         <v>0.14</v>
       </c>
       <c r="E90" t="n">
-        <v>2.85</v>
+        <v>2.852220457142857</v>
       </c>
       <c r="F90" t="n">
+        <v>0.049913858</v>
+      </c>
+      <c r="G90" t="n">
         <v>4.75</v>
       </c>
-      <c r="G90" t="inlineStr">
+      <c r="H90" t="inlineStr">
         <is>
           <t>AA</t>
         </is>
       </c>
-      <c r="H90" t="n">
+      <c r="I90" t="n">
         <v>120</v>
       </c>
-      <c r="I90" t="n">
+      <c r="J90" t="n">
         <v>144</v>
       </c>
-      <c r="J90" t="n">
+      <c r="K90" t="n">
         <v>0.2627824281539727</v>
       </c>
-      <c r="K90" t="n">
+      <c r="L90" t="n">
         <v>0.02468026410102373</v>
-      </c>
-      <c r="L90" t="n">
-        <v>0.049913858</v>
       </c>
     </row>
     <row r="91">
@@ -4239,33 +4239,33 @@
         <v>8</v>
       </c>
       <c r="D91" t="n">
-        <v>6.368</v>
+        <v>6.368607972532189</v>
       </c>
       <c r="E91" t="n">
-        <v>3.7</v>
+        <v>3.700949957081545</v>
       </c>
       <c r="F91" t="n">
+        <v>0.04441139948497855</v>
+      </c>
+      <c r="G91" t="n">
         <v>-6.3</v>
       </c>
-      <c r="G91" t="inlineStr">
+      <c r="H91" t="inlineStr">
         <is>
           <t>HCl</t>
         </is>
       </c>
-      <c r="H91" t="n">
+      <c r="I91" t="n">
         <v>60</v>
       </c>
-      <c r="I91" t="n">
+      <c r="J91" t="n">
         <v>144</v>
       </c>
-      <c r="J91" t="n">
+      <c r="K91" t="n">
         <v>0.3637165114683759</v>
       </c>
-      <c r="K91" t="n">
+      <c r="L91" t="n">
         <v>0.02623305821533162</v>
-      </c>
-      <c r="L91" t="n">
-        <v>0.043116067</v>
       </c>
     </row>
     <row r="92">
@@ -4284,30 +4284,30 @@
         <v>4</v>
       </c>
       <c r="E92" t="n">
-        <v>2.06</v>
+        <v>2.05532227522953</v>
       </c>
       <c r="F92" t="n">
+        <v>0.026858004</v>
+      </c>
+      <c r="G92" t="n">
         <v>0</v>
       </c>
-      <c r="G92" t="inlineStr">
+      <c r="H92" t="inlineStr">
         <is>
           <t>TFAA</t>
         </is>
       </c>
-      <c r="H92" t="n">
+      <c r="I92" t="n">
         <v>120</v>
       </c>
-      <c r="I92" t="n">
+      <c r="J92" t="n">
         <v>144</v>
       </c>
-      <c r="J92" t="n">
+      <c r="K92" t="n">
         <v>0.545589581918854</v>
       </c>
-      <c r="K92" t="n">
+      <c r="L92" t="n">
         <v>0.01526232516782799</v>
-      </c>
-      <c r="L92" t="n">
-        <v>0.026858004</v>
       </c>
     </row>
     <row r="93">
@@ -4326,30 +4326,30 @@
         <v>1.15</v>
       </c>
       <c r="E93" t="n">
-        <v>0.74</v>
+        <v>0.7394229714285714</v>
       </c>
       <c r="F93" t="n">
+        <v>0.012939902</v>
+      </c>
+      <c r="G93" t="n">
         <v>4.75</v>
       </c>
-      <c r="G93" t="inlineStr">
+      <c r="H93" t="inlineStr">
         <is>
           <t>AA</t>
         </is>
       </c>
-      <c r="H93" t="n">
+      <c r="I93" t="n">
         <v>100</v>
       </c>
-      <c r="I93" t="n">
+      <c r="J93" t="n">
         <v>168</v>
       </c>
-      <c r="J93" t="n">
+      <c r="K93" t="n">
         <v>1.04382</v>
       </c>
-      <c r="K93" t="n">
+      <c r="L93" t="n">
         <v>0.008231</v>
-      </c>
-      <c r="L93" t="n">
-        <v>0.012939902</v>
       </c>
     </row>
     <row r="94">
@@ -4371,27 +4371,27 @@
         <v>3.4</v>
       </c>
       <c r="F94" t="n">
+        <v>0.04122506592213433</v>
+      </c>
+      <c r="G94" t="n">
         <v>1.35</v>
       </c>
-      <c r="G94" t="inlineStr">
+      <c r="H94" t="inlineStr">
         <is>
           <t>DClAA</t>
         </is>
       </c>
-      <c r="H94" t="n">
+      <c r="I94" t="n">
         <v>120</v>
       </c>
-      <c r="I94" t="n">
+      <c r="J94" t="n">
         <v>1.5</v>
       </c>
-      <c r="J94" t="n">
+      <c r="K94" t="n">
         <v>0.423697</v>
       </c>
-      <c r="K94" t="n">
+      <c r="L94" t="n">
         <v>0.015054</v>
-      </c>
-      <c r="L94" t="n">
-        <v>0.041185</v>
       </c>
     </row>
     <row r="95">
@@ -4413,27 +4413,27 @@
         <v>4.28</v>
       </c>
       <c r="F95" t="n">
+        <v>0.05136</v>
+      </c>
+      <c r="G95" t="n">
         <v>-6.3</v>
       </c>
-      <c r="G95" t="inlineStr">
+      <c r="H95" t="inlineStr">
         <is>
           <t>HCl</t>
         </is>
       </c>
-      <c r="H95" t="n">
+      <c r="I95" t="n">
         <v>150</v>
       </c>
-      <c r="I95" t="n">
+      <c r="J95" t="n">
         <v>4.9</v>
       </c>
-      <c r="J95" t="n">
+      <c r="K95" t="n">
         <v>0.968034</v>
       </c>
-      <c r="K95" t="n">
+      <c r="L95" t="n">
         <v>0.054235</v>
-      </c>
-      <c r="L95" t="n">
-        <v>0.049911</v>
       </c>
     </row>
     <row r="96">
@@ -4453,27 +4453,27 @@
       </c>
       <c r="E96" t="inlineStr"/>
       <c r="F96" t="n">
+        <v>0.049915</v>
+      </c>
+      <c r="G96" t="n">
         <v>2.86</v>
       </c>
-      <c r="G96" t="inlineStr">
+      <c r="H96" t="inlineStr">
         <is>
           <t>ClAA</t>
         </is>
       </c>
-      <c r="H96" t="n">
+      <c r="I96" t="n">
         <v>40</v>
       </c>
-      <c r="I96" t="n">
+      <c r="J96" t="n">
         <v>24</v>
-      </c>
-      <c r="J96" t="n">
-        <v>0</v>
       </c>
       <c r="K96" t="n">
         <v>0</v>
       </c>
       <c r="L96" t="n">
-        <v>0.049915</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -4495,27 +4495,27 @@
         <v>2.88</v>
       </c>
       <c r="F97" t="n">
+        <v>0.03455999999999999</v>
+      </c>
+      <c r="G97" t="n">
         <v>-6.3</v>
       </c>
-      <c r="G97" t="inlineStr">
+      <c r="H97" t="inlineStr">
         <is>
           <t>HCl</t>
         </is>
       </c>
-      <c r="H97" t="n">
+      <c r="I97" t="n">
         <v>150</v>
       </c>
-      <c r="I97" t="n">
+      <c r="J97" t="n">
         <v>24</v>
       </c>
-      <c r="J97" t="n">
+      <c r="K97" t="n">
         <v>0.2198093962836374</v>
       </c>
-      <c r="K97" t="n">
+      <c r="L97" t="n">
         <v>0.0166500565169438</v>
-      </c>
-      <c r="L97" t="n">
-        <v>0.033528</v>
       </c>
     </row>
     <row r="98">
@@ -4537,27 +4537,27 @@
         <v>0.29</v>
       </c>
       <c r="F98" t="n">
+        <v>0.004582</v>
+      </c>
+      <c r="G98" t="n">
         <v>-1.37</v>
       </c>
-      <c r="G98" t="inlineStr">
+      <c r="H98" t="inlineStr">
         <is>
           <t>HNO3</t>
         </is>
       </c>
-      <c r="H98" t="n">
+      <c r="I98" t="n">
         <v>100</v>
       </c>
-      <c r="I98" t="n">
+      <c r="J98" t="n">
         <v>48</v>
       </c>
-      <c r="J98" t="n">
+      <c r="K98" t="n">
         <v>0.2427095526806776</v>
       </c>
-      <c r="K98" t="n">
+      <c r="L98" t="n">
         <v>0.03781339681174235</v>
-      </c>
-      <c r="L98" t="n">
-        <v>0.006838</v>
       </c>
     </row>
     <row r="99">
@@ -4579,27 +4579,27 @@
         <v>1.9</v>
       </c>
       <c r="F99" t="n">
+        <v>0.03545101397852751</v>
+      </c>
+      <c r="G99" t="n">
         <v>-3</v>
       </c>
-      <c r="G99" t="inlineStr">
+      <c r="H99" t="inlineStr">
         <is>
           <t>H2SO4</t>
         </is>
       </c>
-      <c r="H99" t="n">
+      <c r="I99" t="n">
         <v>120</v>
       </c>
-      <c r="I99" t="n">
+      <c r="J99" t="n">
         <v>48</v>
       </c>
-      <c r="J99" t="n">
+      <c r="K99" t="n">
         <v>0.413381</v>
       </c>
-      <c r="K99" t="n">
+      <c r="L99" t="n">
         <v>0.038892</v>
-      </c>
-      <c r="L99" t="n">
-        <v>0.035478</v>
       </c>
     </row>
     <row r="100">
@@ -4621,27 +4621,27 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="F100" t="n">
+        <v>0.006790010857763301</v>
+      </c>
+      <c r="G100" t="n">
         <v>1.35</v>
       </c>
-      <c r="G100" t="inlineStr">
+      <c r="H100" t="inlineStr">
         <is>
           <t>DClAA</t>
         </is>
       </c>
-      <c r="H100" t="n">
+      <c r="I100" t="n">
         <v>120</v>
       </c>
-      <c r="I100" t="n">
+      <c r="J100" t="n">
         <v>48</v>
       </c>
-      <c r="J100" t="n">
+      <c r="K100" t="n">
         <v>0.3494041103026533</v>
       </c>
-      <c r="K100" t="n">
+      <c r="L100" t="n">
         <v>0.03761376556910984</v>
-      </c>
-      <c r="L100" t="n">
-        <v>0.006823</v>
       </c>
     </row>
     <row r="101">
@@ -4663,27 +4663,27 @@
         <v>0.98</v>
       </c>
       <c r="F101" t="n">
+        <v>0.01176</v>
+      </c>
+      <c r="G101" t="n">
         <v>-6.3</v>
       </c>
-      <c r="G101" t="inlineStr">
+      <c r="H101" t="inlineStr">
         <is>
           <t>HCl</t>
         </is>
       </c>
-      <c r="H101" t="n">
+      <c r="I101" t="n">
         <v>60</v>
       </c>
-      <c r="I101" t="n">
+      <c r="J101" t="n">
         <v>48</v>
       </c>
-      <c r="J101" t="n">
+      <c r="K101" t="n">
         <v>0.3102407247408378</v>
       </c>
-      <c r="K101" t="n">
+      <c r="L101" t="n">
         <v>0.03307678241309751</v>
-      </c>
-      <c r="L101" t="n">
-        <v>0.011412</v>
       </c>
     </row>
     <row r="102">
@@ -4705,27 +4705,27 @@
         <v>3.23</v>
       </c>
       <c r="F102" t="n">
+        <v>0.03876</v>
+      </c>
+      <c r="G102" t="n">
         <v>-6.3</v>
       </c>
-      <c r="G102" t="inlineStr">
+      <c r="H102" t="inlineStr">
         <is>
           <t>HCl</t>
         </is>
       </c>
-      <c r="H102" t="n">
+      <c r="I102" t="n">
         <v>80</v>
       </c>
-      <c r="I102" t="n">
+      <c r="J102" t="n">
         <v>72</v>
       </c>
-      <c r="J102" t="n">
+      <c r="K102" t="n">
         <v>0.539566828409361</v>
       </c>
-      <c r="K102" t="n">
+      <c r="L102" t="n">
         <v>0.03539850333541653</v>
-      </c>
-      <c r="L102" t="n">
-        <v>0.037647</v>
       </c>
     </row>
     <row r="103">
@@ -4747,27 +4747,27 @@
         <v>3.11</v>
       </c>
       <c r="F103" t="n">
+        <v>0.03732</v>
+      </c>
+      <c r="G103" t="n">
         <v>-6.3</v>
       </c>
-      <c r="G103" t="inlineStr">
+      <c r="H103" t="inlineStr">
         <is>
           <t>HCl</t>
         </is>
       </c>
-      <c r="H103" t="n">
+      <c r="I103" t="n">
         <v>25</v>
       </c>
-      <c r="I103" t="n">
+      <c r="J103" t="n">
         <v>96</v>
       </c>
-      <c r="J103" t="n">
+      <c r="K103" t="n">
         <v>0.5401770299008608</v>
       </c>
-      <c r="K103" t="n">
+      <c r="L103" t="n">
         <v>0.02382091802470496</v>
-      </c>
-      <c r="L103" t="n">
-        <v>0.03621</v>
       </c>
     </row>
     <row r="104">
@@ -4789,27 +4789,27 @@
         <v>2.85</v>
       </c>
       <c r="F104" t="n">
+        <v>0.049875</v>
+      </c>
+      <c r="G104" t="n">
         <v>4.75</v>
       </c>
-      <c r="G104" t="inlineStr">
+      <c r="H104" t="inlineStr">
         <is>
           <t>AA</t>
         </is>
       </c>
-      <c r="H104" t="n">
+      <c r="I104" t="n">
         <v>100</v>
       </c>
-      <c r="I104" t="n">
+      <c r="J104" t="n">
         <v>96</v>
       </c>
-      <c r="J104" t="n">
+      <c r="K104" t="n">
         <v>0.1830941583294057</v>
       </c>
-      <c r="K104" t="n">
+      <c r="L104" t="n">
         <v>0.004499582795121273</v>
-      </c>
-      <c r="L104" t="n">
-        <v>0.049872</v>
       </c>
     </row>
     <row r="105">
@@ -4831,27 +4831,27 @@
         <v>1.2</v>
       </c>
       <c r="F105" t="n">
+        <v>0.01568104680634609</v>
+      </c>
+      <c r="G105" t="n">
         <v>0</v>
       </c>
-      <c r="G105" t="inlineStr">
+      <c r="H105" t="inlineStr">
         <is>
           <t>TFAA</t>
         </is>
       </c>
-      <c r="H105" t="n">
+      <c r="I105" t="n">
         <v>25</v>
       </c>
-      <c r="I105" t="n">
+      <c r="J105" t="n">
         <v>96</v>
       </c>
-      <c r="J105" t="n">
+      <c r="K105" t="n">
         <v>0.2390764768955428</v>
       </c>
-      <c r="K105" t="n">
+      <c r="L105" t="n">
         <v>0.01967162966942998</v>
-      </c>
-      <c r="L105" t="n">
-        <v>0.015711</v>
       </c>
     </row>
     <row r="106">
@@ -4873,27 +4873,27 @@
         <v>2.86</v>
       </c>
       <c r="F106" t="n">
+        <v>0.05005</v>
+      </c>
+      <c r="G106" t="n">
         <v>4.75</v>
       </c>
-      <c r="G106" t="inlineStr">
+      <c r="H106" t="inlineStr">
         <is>
           <t>AA</t>
         </is>
       </c>
-      <c r="H106" t="n">
+      <c r="I106" t="n">
         <v>80</v>
       </c>
-      <c r="I106" t="n">
+      <c r="J106" t="n">
         <v>96</v>
       </c>
-      <c r="J106" t="n">
+      <c r="K106" t="n">
         <v>0.06150640024061127</v>
       </c>
-      <c r="K106" t="n">
+      <c r="L106" t="n">
         <v>0.00317208617150478</v>
-      </c>
-      <c r="L106" t="n">
-        <v>0.049989</v>
       </c>
     </row>
     <row r="107">
@@ -4915,27 +4915,27 @@
         <v>0.08</v>
       </c>
       <c r="F107" t="n">
+        <v>0.001045403120423073</v>
+      </c>
+      <c r="G107" t="n">
         <v>0</v>
       </c>
-      <c r="G107" t="inlineStr">
+      <c r="H107" t="inlineStr">
         <is>
           <t>TFAA</t>
         </is>
-      </c>
-      <c r="H107" t="n">
-        <v>120</v>
       </c>
       <c r="I107" t="n">
         <v>120</v>
       </c>
       <c r="J107" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="K107" t="n">
         <v>0</v>
       </c>
       <c r="L107" t="n">
-        <v>0.000993</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108">
@@ -4957,27 +4957,27 @@
         <v>0.8</v>
       </c>
       <c r="F108" t="n">
+        <v>0.009600000000000001</v>
+      </c>
+      <c r="G108" t="n">
         <v>-6.3</v>
       </c>
-      <c r="G108" t="inlineStr">
+      <c r="H108" t="inlineStr">
         <is>
           <t>HCl</t>
         </is>
       </c>
-      <c r="H108" t="n">
+      <c r="I108" t="n">
         <v>100</v>
       </c>
-      <c r="I108" t="n">
+      <c r="J108" t="n">
         <v>120</v>
       </c>
-      <c r="J108" t="n">
+      <c r="K108" t="n">
         <v>0.2130923807236604</v>
       </c>
-      <c r="K108" t="n">
+      <c r="L108" t="n">
         <v>0.02336577502228439</v>
-      </c>
-      <c r="L108" t="n">
-        <v>0.009271</v>
       </c>
     </row>
     <row r="109">
@@ -4997,27 +4997,27 @@
       </c>
       <c r="E109" t="inlineStr"/>
       <c r="F109" t="n">
+        <v>0.033114</v>
+      </c>
+      <c r="G109" t="n">
         <v>2.86</v>
       </c>
-      <c r="G109" t="inlineStr">
+      <c r="H109" t="inlineStr">
         <is>
           <t>ClAA</t>
         </is>
-      </c>
-      <c r="H109" t="n">
-        <v>120</v>
       </c>
       <c r="I109" t="n">
         <v>120</v>
       </c>
       <c r="J109" t="n">
+        <v>120</v>
+      </c>
+      <c r="K109" t="n">
         <v>0.1275423685404684</v>
       </c>
-      <c r="K109" t="n">
+      <c r="L109" t="n">
         <v>0.01785112402091394</v>
-      </c>
-      <c r="L109" t="n">
-        <v>0.033114</v>
       </c>
     </row>
     <row r="110">
@@ -5039,27 +5039,27 @@
         <v>0.19</v>
       </c>
       <c r="F110" t="n">
+        <v>0.002482832411004797</v>
+      </c>
+      <c r="G110" t="n">
         <v>0</v>
       </c>
-      <c r="G110" t="inlineStr">
+      <c r="H110" t="inlineStr">
         <is>
           <t>TFAA</t>
         </is>
       </c>
-      <c r="H110" t="n">
+      <c r="I110" t="n">
         <v>25</v>
       </c>
-      <c r="I110" t="n">
+      <c r="J110" t="n">
         <v>120</v>
       </c>
-      <c r="J110" t="n">
+      <c r="K110" t="n">
         <v>0.07439787895957113</v>
       </c>
-      <c r="K110" t="n">
+      <c r="L110" t="n">
         <v>0.003111560711234207</v>
-      </c>
-      <c r="L110" t="n">
-        <v>0.002523</v>
       </c>
     </row>
     <row r="111">
@@ -5081,27 +5081,27 @@
         <v>3.42</v>
       </c>
       <c r="F111" t="n">
+        <v>0.04104</v>
+      </c>
+      <c r="G111" t="n">
         <v>-6.3</v>
       </c>
-      <c r="G111" t="inlineStr">
+      <c r="H111" t="inlineStr">
         <is>
           <t>HCl</t>
         </is>
       </c>
-      <c r="H111" t="n">
+      <c r="I111" t="n">
         <v>60</v>
       </c>
-      <c r="I111" t="n">
+      <c r="J111" t="n">
         <v>144</v>
       </c>
-      <c r="J111" t="n">
+      <c r="K111" t="n">
         <v>0.845069</v>
       </c>
-      <c r="K111" t="n">
+      <c r="L111" t="n">
         <v>0.023346</v>
-      </c>
-      <c r="L111" t="n">
-        <v>0.039793</v>
       </c>
     </row>
     <row r="112">
@@ -5121,27 +5121,27 @@
       </c>
       <c r="E112" t="inlineStr"/>
       <c r="F112" t="n">
+        <v>0.007457</v>
+      </c>
+      <c r="G112" t="n">
         <v>2.86</v>
       </c>
-      <c r="G112" t="inlineStr">
+      <c r="H112" t="inlineStr">
         <is>
           <t>ClAA</t>
         </is>
       </c>
-      <c r="H112" t="n">
+      <c r="I112" t="n">
         <v>60</v>
       </c>
-      <c r="I112" t="n">
+      <c r="J112" t="n">
         <v>168</v>
       </c>
-      <c r="J112" t="n">
+      <c r="K112" t="n">
         <v>0.1642088412569989</v>
       </c>
-      <c r="K112" t="n">
+      <c r="L112" t="n">
         <v>0.03209458369177805</v>
-      </c>
-      <c r="L112" t="n">
-        <v>0.007457</v>
       </c>
     </row>
     <row r="113">
@@ -5163,27 +5163,27 @@
         <v>4.28</v>
       </c>
       <c r="F113" t="n">
+        <v>0.05136</v>
+      </c>
+      <c r="G113" t="n">
         <v>-6.3</v>
       </c>
-      <c r="G113" t="inlineStr">
+      <c r="H113" t="inlineStr">
         <is>
           <t>HCl</t>
         </is>
       </c>
-      <c r="H113" t="n">
+      <c r="I113" t="n">
         <v>120</v>
       </c>
-      <c r="I113" t="n">
+      <c r="J113" t="n">
         <v>168</v>
       </c>
-      <c r="J113" t="n">
+      <c r="K113" t="n">
         <v>0.6221382178348719</v>
       </c>
-      <c r="K113" t="n">
+      <c r="L113" t="n">
         <v>0.02541839321073929</v>
-      </c>
-      <c r="L113" t="n">
-        <v>0.049905</v>
       </c>
     </row>
     <row r="114">
@@ -5205,27 +5205,27 @@
         <v>0.57</v>
       </c>
       <c r="F114" t="n">
+        <v>0.009974999999999999</v>
+      </c>
+      <c r="G114" t="n">
         <v>4.75</v>
       </c>
-      <c r="G114" t="inlineStr">
+      <c r="H114" t="inlineStr">
         <is>
           <t>AA</t>
         </is>
       </c>
-      <c r="H114" t="n">
+      <c r="I114" t="n">
         <v>120</v>
       </c>
-      <c r="I114" t="n">
+      <c r="J114" t="n">
         <v>1</v>
-      </c>
-      <c r="J114" t="n">
-        <v>0</v>
       </c>
       <c r="K114" t="n">
         <v>0</v>
       </c>
       <c r="L114" t="n">
-        <v>0.010003912</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115">
@@ -5247,27 +5247,27 @@
         <v>1.8</v>
       </c>
       <c r="F115" t="n">
+        <v>0.02844</v>
+      </c>
+      <c r="G115" t="n">
         <v>-1.37</v>
       </c>
-      <c r="G115" t="inlineStr">
+      <c r="H115" t="inlineStr">
         <is>
           <t>HNO3</t>
         </is>
       </c>
-      <c r="H115" t="n">
+      <c r="I115" t="n">
         <v>80</v>
       </c>
-      <c r="I115" t="n">
+      <c r="J115" t="n">
         <v>1</v>
       </c>
-      <c r="J115" t="n">
+      <c r="K115" t="n">
         <v>0.591736</v>
       </c>
-      <c r="K115" t="n">
+      <c r="L115" t="n">
         <v>0.046932</v>
-      </c>
-      <c r="L115" t="n">
-        <v>0.04320615</v>
       </c>
     </row>
     <row r="116">
@@ -5289,27 +5289,27 @@
         <v>2.81</v>
       </c>
       <c r="F116" t="n">
+        <v>0.03407130448270514</v>
+      </c>
+      <c r="G116" t="n">
         <v>1.35</v>
       </c>
-      <c r="G116" t="inlineStr">
+      <c r="H116" t="inlineStr">
         <is>
           <t>DClAA</t>
         </is>
       </c>
-      <c r="H116" t="n">
+      <c r="I116" t="n">
         <v>80</v>
       </c>
-      <c r="I116" t="n">
+      <c r="J116" t="n">
         <v>24</v>
       </c>
-      <c r="J116" t="n">
+      <c r="K116" t="n">
         <v>0.433576</v>
       </c>
-      <c r="K116" t="n">
+      <c r="L116" t="n">
         <v>0.014635</v>
-      </c>
-      <c r="L116" t="n">
-        <v>0.034115552</v>
       </c>
     </row>
     <row r="117">
@@ -5331,27 +5331,27 @@
         <v>3.19</v>
       </c>
       <c r="F117" t="n">
+        <v>0.03828</v>
+      </c>
+      <c r="G117" t="n">
         <v>-6.3</v>
       </c>
-      <c r="G117" t="inlineStr">
+      <c r="H117" t="inlineStr">
         <is>
           <t>HCl</t>
         </is>
       </c>
-      <c r="H117" t="n">
+      <c r="I117" t="n">
         <v>120</v>
       </c>
-      <c r="I117" t="n">
+      <c r="J117" t="n">
         <v>24</v>
       </c>
-      <c r="J117" t="n">
+      <c r="K117" t="n">
         <v>0.454409</v>
       </c>
-      <c r="K117" t="n">
+      <c r="L117" t="n">
         <v>0.031323</v>
-      </c>
-      <c r="L117" t="n">
-        <v>0.037195075</v>
       </c>
     </row>
     <row r="118">
@@ -5373,27 +5373,27 @@
         <v>1.46</v>
       </c>
       <c r="F118" t="n">
+        <v>0.02555</v>
+      </c>
+      <c r="G118" t="n">
         <v>4.75</v>
       </c>
-      <c r="G118" t="inlineStr">
+      <c r="H118" t="inlineStr">
         <is>
           <t>AA</t>
         </is>
       </c>
-      <c r="H118" t="n">
+      <c r="I118" t="n">
         <v>120</v>
       </c>
-      <c r="I118" t="n">
+      <c r="J118" t="n">
         <v>24</v>
       </c>
-      <c r="J118" t="n">
+      <c r="K118" t="n">
         <v>0.083942</v>
       </c>
-      <c r="K118" t="n">
+      <c r="L118" t="n">
         <v>0.008041</v>
-      </c>
-      <c r="L118" t="n">
-        <v>0.025481248</v>
       </c>
     </row>
     <row r="119">
@@ -5415,27 +5415,27 @@
         <v>1.69</v>
       </c>
       <c r="F119" t="n">
+        <v>0.02028</v>
+      </c>
+      <c r="G119" t="n">
         <v>-6.3</v>
       </c>
-      <c r="G119" t="inlineStr">
+      <c r="H119" t="inlineStr">
         <is>
           <t>HCl</t>
         </is>
       </c>
-      <c r="H119" t="n">
+      <c r="I119" t="n">
         <v>80</v>
       </c>
-      <c r="I119" t="n">
+      <c r="J119" t="n">
         <v>24</v>
       </c>
-      <c r="J119" t="n">
+      <c r="K119" t="n">
         <v>0.720967</v>
       </c>
-      <c r="K119" t="n">
+      <c r="L119" t="n">
         <v>0.049266</v>
-      </c>
-      <c r="L119" t="n">
-        <v>0.019718089</v>
       </c>
     </row>
     <row r="120">
@@ -5451,33 +5451,33 @@
         <v>8</v>
       </c>
       <c r="D120" t="n">
-        <v>2.7744</v>
+        <v>2.776361146781116</v>
       </c>
       <c r="E120" t="n">
-        <v>1.96</v>
+        <v>1.963064291845493</v>
       </c>
       <c r="F120" t="n">
+        <v>0.02355677150214592</v>
+      </c>
+      <c r="G120" t="n">
         <v>-6.3</v>
       </c>
-      <c r="G120" t="inlineStr">
+      <c r="H120" t="inlineStr">
         <is>
           <t>HCl</t>
         </is>
       </c>
-      <c r="H120" t="n">
+      <c r="I120" t="n">
         <v>80</v>
       </c>
-      <c r="I120" t="n">
+      <c r="J120" t="n">
         <v>24</v>
       </c>
-      <c r="J120" t="n">
+      <c r="K120" t="n">
         <v>0.512448</v>
       </c>
-      <c r="K120" t="n">
+      <c r="L120" t="n">
         <v>0.000824</v>
-      </c>
-      <c r="L120" t="n">
-        <v>0.022869699</v>
       </c>
     </row>
     <row r="121">
@@ -5496,30 +5496,30 @@
         <v>2.08</v>
       </c>
       <c r="E121" t="n">
-        <v>2.21</v>
+        <v>2.214374520890367</v>
       </c>
       <c r="F121" t="n">
+        <v>0.026849334</v>
+      </c>
+      <c r="G121" t="n">
         <v>1.35</v>
       </c>
-      <c r="G121" t="inlineStr">
+      <c r="H121" t="inlineStr">
         <is>
           <t>DClAA</t>
         </is>
       </c>
-      <c r="H121" t="n">
+      <c r="I121" t="n">
         <v>60</v>
       </c>
-      <c r="I121" t="n">
+      <c r="J121" t="n">
         <v>24</v>
       </c>
-      <c r="J121" t="n">
+      <c r="K121" t="n">
         <v>0.0407254</v>
       </c>
-      <c r="K121" t="n">
+      <c r="L121" t="n">
         <v>0.035682</v>
-      </c>
-      <c r="L121" t="n">
-        <v>0.026849334</v>
       </c>
     </row>
     <row r="122">
@@ -5538,30 +5538,30 @@
         <v>3.99</v>
       </c>
       <c r="E122" t="n">
-        <v>3.12</v>
+        <v>3.12160671963669</v>
       </c>
       <c r="F122" t="n">
+        <v>0.03784954200000001</v>
+      </c>
+      <c r="G122" t="n">
         <v>1.35</v>
       </c>
-      <c r="G122" t="inlineStr">
+      <c r="H122" t="inlineStr">
         <is>
           <t>DClAA</t>
         </is>
       </c>
-      <c r="H122" t="n">
+      <c r="I122" t="n">
         <v>100</v>
       </c>
-      <c r="I122" t="n">
+      <c r="J122" t="n">
         <v>48</v>
       </c>
-      <c r="J122" t="n">
+      <c r="K122" t="n">
         <v>0.503314</v>
       </c>
-      <c r="K122" t="n">
+      <c r="L122" t="n">
         <v>0.035392</v>
-      </c>
-      <c r="L122" t="n">
-        <v>0.037849542</v>
       </c>
     </row>
     <row r="123">
@@ -5577,33 +5577,33 @@
         <v>8</v>
       </c>
       <c r="D123" t="n">
-        <v>4.5184</v>
+        <v>4.521084813733905</v>
       </c>
       <c r="E123" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.8141950214592275</v>
       </c>
       <c r="F123" t="n">
+        <v>0.00977034025751073</v>
+      </c>
+      <c r="G123" t="n">
         <v>-6.3</v>
       </c>
-      <c r="G123" t="inlineStr">
+      <c r="H123" t="inlineStr">
         <is>
           <t>HCl</t>
         </is>
       </c>
-      <c r="H123" t="n">
+      <c r="I123" t="n">
         <v>120</v>
       </c>
-      <c r="I123" t="n">
+      <c r="J123" t="n">
         <v>48</v>
       </c>
-      <c r="J123" t="n">
+      <c r="K123" t="n">
         <v>0.353167</v>
       </c>
-      <c r="K123" t="n">
+      <c r="L123" t="n">
         <v>0.037729</v>
-      </c>
-      <c r="L123" t="n">
-        <v>0.009485372000000001</v>
       </c>
     </row>
     <row r="124">
@@ -5622,30 +5622,30 @@
         <v>1.05</v>
       </c>
       <c r="E124" t="n">
-        <v>2.51</v>
+        <v>2.505707885714286</v>
       </c>
       <c r="F124" t="n">
+        <v>0.04384988800000001</v>
+      </c>
+      <c r="G124" t="n">
         <v>4.75</v>
       </c>
-      <c r="G124" t="inlineStr">
+      <c r="H124" t="inlineStr">
         <is>
           <t>AA</t>
         </is>
       </c>
-      <c r="H124" t="n">
+      <c r="I124" t="n">
         <v>25</v>
       </c>
-      <c r="I124" t="n">
+      <c r="J124" t="n">
         <v>48</v>
-      </c>
-      <c r="J124" t="n">
-        <v>0</v>
       </c>
       <c r="K124" t="n">
         <v>0</v>
       </c>
       <c r="L124" t="n">
-        <v>0.043849888</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125">
@@ -5661,33 +5661,33 @@
         <v>8</v>
       </c>
       <c r="D125" t="n">
-        <v>1.8384</v>
+        <v>1.838611612017167</v>
       </c>
       <c r="E125" t="n">
-        <v>1.06</v>
+        <v>1.060330643776824</v>
       </c>
       <c r="F125" t="n">
+        <v>0.01272396772532189</v>
+      </c>
+      <c r="G125" t="n">
         <v>-6.3</v>
       </c>
-      <c r="G125" t="inlineStr">
+      <c r="H125" t="inlineStr">
         <is>
           <t>HCl</t>
         </is>
       </c>
-      <c r="H125" t="n">
+      <c r="I125" t="n">
         <v>40</v>
       </c>
-      <c r="I125" t="n">
+      <c r="J125" t="n">
         <v>48</v>
       </c>
-      <c r="J125" t="n">
+      <c r="K125" t="n">
         <v>0.345452</v>
       </c>
-      <c r="K125" t="n">
+      <c r="L125" t="n">
         <v>0.009608</v>
-      </c>
-      <c r="L125" t="n">
-        <v>0.012352852</v>
       </c>
     </row>
     <row r="126">
@@ -5706,30 +5706,30 @@
         <v>1.35</v>
       </c>
       <c r="E126" t="n">
-        <v>2.8</v>
+        <v>2.795466971428572</v>
       </c>
       <c r="F126" t="n">
+        <v>0.04892067200000001</v>
+      </c>
+      <c r="G126" t="n">
         <v>4.75</v>
       </c>
-      <c r="G126" t="inlineStr">
+      <c r="H126" t="inlineStr">
         <is>
           <t>AA</t>
         </is>
       </c>
-      <c r="H126" t="n">
+      <c r="I126" t="n">
         <v>80</v>
       </c>
-      <c r="I126" t="n">
+      <c r="J126" t="n">
         <v>72</v>
       </c>
-      <c r="J126" t="n">
+      <c r="K126" t="n">
         <v>0.536018</v>
       </c>
-      <c r="K126" t="n">
+      <c r="L126" t="n">
         <v>0.022697</v>
-      </c>
-      <c r="L126" t="n">
-        <v>0.048920672</v>
       </c>
     </row>
     <row r="127">
@@ -5745,33 +5745,33 @@
         <v>8</v>
       </c>
       <c r="D127" t="n">
-        <v>4.4292</v>
+        <v>4.426263745922747</v>
       </c>
       <c r="E127" t="n">
-        <v>0.78</v>
+        <v>0.7754121030042919</v>
       </c>
       <c r="F127" t="n">
+        <v>0.009304945236051503</v>
+      </c>
+      <c r="G127" t="n">
         <v>-6.3</v>
       </c>
-      <c r="G127" t="inlineStr">
+      <c r="H127" t="inlineStr">
         <is>
           <t>HCl</t>
         </is>
       </c>
-      <c r="H127" t="n">
+      <c r="I127" t="n">
         <v>25</v>
       </c>
-      <c r="I127" t="n">
+      <c r="J127" t="n">
         <v>72</v>
       </c>
-      <c r="J127" t="n">
+      <c r="K127" t="n">
         <v>0.1022746</v>
       </c>
-      <c r="K127" t="n">
+      <c r="L127" t="n">
         <v>0.034509</v>
-      </c>
-      <c r="L127" t="n">
-        <v>0.009033551000000001</v>
       </c>
     </row>
     <row r="128">
@@ -5787,33 +5787,33 @@
         <v>8</v>
       </c>
       <c r="D128" t="n">
-        <v>4.2608</v>
+        <v>4.260461212017168</v>
       </c>
       <c r="E128" t="n">
-        <v>0.47</v>
+        <v>0.469470643776824</v>
       </c>
       <c r="F128" t="n">
+        <v>0.005633647725321888</v>
+      </c>
+      <c r="G128" t="n">
         <v>-6.3</v>
       </c>
-      <c r="G128" t="inlineStr">
+      <c r="H128" t="inlineStr">
         <is>
           <t>HCl</t>
         </is>
       </c>
-      <c r="H128" t="n">
+      <c r="I128" t="n">
         <v>100</v>
       </c>
-      <c r="I128" t="n">
+      <c r="J128" t="n">
         <v>72</v>
       </c>
-      <c r="J128" t="n">
+      <c r="K128" t="n">
         <v>0.235486</v>
       </c>
-      <c r="K128" t="n">
+      <c r="L128" t="n">
         <v>0.038671</v>
-      </c>
-      <c r="L128" t="n">
-        <v>0.005469333</v>
       </c>
     </row>
     <row r="129">
@@ -5832,30 +5832,30 @@
         <v>2.12</v>
       </c>
       <c r="E129" t="n">
-        <v>1.03</v>
+        <v>1.025283949378523</v>
       </c>
       <c r="F129" t="n">
+        <v>0.01339793799999999</v>
+      </c>
+      <c r="G129" t="n">
         <v>0</v>
       </c>
-      <c r="G129" t="inlineStr">
+      <c r="H129" t="inlineStr">
         <is>
           <t>TFAA</t>
         </is>
       </c>
-      <c r="H129" t="n">
+      <c r="I129" t="n">
         <v>120</v>
       </c>
-      <c r="I129" t="n">
+      <c r="J129" t="n">
         <v>72</v>
       </c>
-      <c r="J129" t="n">
+      <c r="K129" t="n">
         <v>0.3</v>
       </c>
-      <c r="K129" t="n">
+      <c r="L129" t="n">
         <v>0.020187</v>
-      </c>
-      <c r="L129" t="n">
-        <v>0.013397938</v>
       </c>
     </row>
     <row r="130">
@@ -5874,30 +5874,30 @@
         <v>2.24</v>
       </c>
       <c r="E130" t="n">
-        <v>0.46</v>
+        <v>0.4613974285714286</v>
       </c>
       <c r="F130" t="n">
+        <v>0.008074455000000001</v>
+      </c>
+      <c r="G130" t="n">
         <v>4.75</v>
       </c>
-      <c r="G130" t="inlineStr">
+      <c r="H130" t="inlineStr">
         <is>
           <t>AA</t>
         </is>
       </c>
-      <c r="H130" t="n">
+      <c r="I130" t="n">
         <v>150</v>
       </c>
-      <c r="I130" t="n">
+      <c r="J130" t="n">
         <v>72</v>
       </c>
-      <c r="J130" t="n">
+      <c r="K130" t="n">
         <v>0.150624</v>
       </c>
-      <c r="K130" t="n">
+      <c r="L130" t="n">
         <v>0.005017</v>
-      </c>
-      <c r="L130" t="n">
-        <v>0.008074454999999999</v>
       </c>
     </row>
     <row r="131">
@@ -5916,30 +5916,30 @@
         <v>3.96</v>
       </c>
       <c r="E131" t="n">
-        <v>2.54</v>
+        <v>2.539857216911859</v>
       </c>
       <c r="F131" t="n">
+        <v>0.030795818</v>
+      </c>
+      <c r="G131" t="n">
         <v>1.35</v>
       </c>
-      <c r="G131" t="inlineStr">
+      <c r="H131" t="inlineStr">
         <is>
           <t>DClAA</t>
         </is>
       </c>
-      <c r="H131" t="n">
+      <c r="I131" t="n">
         <v>100</v>
       </c>
-      <c r="I131" t="n">
+      <c r="J131" t="n">
         <v>72</v>
       </c>
-      <c r="J131" t="n">
+      <c r="K131" t="n">
         <v>0.531156</v>
       </c>
-      <c r="K131" t="n">
+      <c r="L131" t="n">
         <v>0.020234</v>
-      </c>
-      <c r="L131" t="n">
-        <v>0.030795818</v>
       </c>
     </row>
     <row r="132">
@@ -5958,30 +5958,30 @@
         <v>0.5</v>
       </c>
       <c r="E132" t="n">
-        <v>3.01</v>
+        <v>3.005991069463989</v>
       </c>
       <c r="F132" t="n">
+        <v>0.03644770000000001</v>
+      </c>
+      <c r="G132" t="n">
         <v>1.35</v>
       </c>
-      <c r="G132" t="inlineStr">
+      <c r="H132" t="inlineStr">
         <is>
           <t>DClAA</t>
         </is>
       </c>
-      <c r="H132" t="n">
+      <c r="I132" t="n">
         <v>60</v>
       </c>
-      <c r="I132" t="n">
+      <c r="J132" t="n">
         <v>72</v>
       </c>
-      <c r="J132" t="n">
+      <c r="K132" t="n">
         <v>0.290107</v>
       </c>
-      <c r="K132" t="n">
+      <c r="L132" t="n">
         <v>0.038224</v>
-      </c>
-      <c r="L132" t="n">
-        <v>0.0364477</v>
       </c>
     </row>
     <row r="133">
@@ -6000,30 +6000,30 @@
         <v>0.76</v>
       </c>
       <c r="E133" t="n">
-        <v>0.8</v>
+        <v>0.7988783767131147</v>
       </c>
       <c r="F133" t="n">
+        <v>0.014905815</v>
+      </c>
+      <c r="G133" t="n">
         <v>-3</v>
       </c>
-      <c r="G133" t="inlineStr">
+      <c r="H133" t="inlineStr">
         <is>
           <t>H2SO4</t>
         </is>
       </c>
-      <c r="H133" t="n">
+      <c r="I133" t="n">
         <v>100</v>
       </c>
-      <c r="I133" t="n">
+      <c r="J133" t="n">
         <v>72</v>
       </c>
-      <c r="J133" t="n">
+      <c r="K133" t="n">
         <v>0.739913</v>
       </c>
-      <c r="K133" t="n">
+      <c r="L133" t="n">
         <v>0.017729</v>
-      </c>
-      <c r="L133" t="n">
-        <v>0.014905815</v>
       </c>
     </row>
     <row r="134">
@@ -6042,30 +6042,30 @@
         <v>0.55</v>
       </c>
       <c r="E134" t="n">
-        <v>1.6</v>
+        <v>1.603083139862295</v>
       </c>
       <c r="F134" t="n">
+        <v>0.029911012</v>
+      </c>
+      <c r="G134" t="n">
         <v>-3</v>
       </c>
-      <c r="G134" t="inlineStr">
+      <c r="H134" t="inlineStr">
         <is>
           <t>H2SO4</t>
         </is>
       </c>
-      <c r="H134" t="n">
+      <c r="I134" t="n">
         <v>60</v>
       </c>
-      <c r="I134" t="n">
+      <c r="J134" t="n">
         <v>96</v>
       </c>
-      <c r="J134" t="n">
+      <c r="K134" t="n">
         <v>0.880147</v>
       </c>
-      <c r="K134" t="n">
+      <c r="L134" t="n">
         <v>0.043282</v>
-      </c>
-      <c r="L134" t="n">
-        <v>0.029911012</v>
       </c>
     </row>
     <row r="135">
@@ -6085,27 +6085,27 @@
       </c>
       <c r="E135" t="inlineStr"/>
       <c r="F135" t="n">
+        <v>0.041269113</v>
+      </c>
+      <c r="G135" t="n">
         <v>2.86</v>
       </c>
-      <c r="G135" t="inlineStr">
+      <c r="H135" t="inlineStr">
         <is>
           <t>ClAA</t>
         </is>
       </c>
-      <c r="H135" t="n">
+      <c r="I135" t="n">
         <v>120</v>
       </c>
-      <c r="I135" t="n">
+      <c r="J135" t="n">
         <v>96</v>
       </c>
-      <c r="J135" t="n">
+      <c r="K135" t="n">
         <v>0.188908</v>
       </c>
-      <c r="K135" t="n">
+      <c r="L135" t="n">
         <v>0.047683</v>
-      </c>
-      <c r="L135" t="n">
-        <v>0.041269113</v>
       </c>
     </row>
     <row r="136">
@@ -6121,33 +6121,33 @@
         <v>8</v>
       </c>
       <c r="D136" t="n">
-        <v>2.7956</v>
+        <v>2.796619330472103</v>
       </c>
       <c r="E136" t="n">
-        <v>3.29</v>
+        <v>3.291592703862661</v>
       </c>
       <c r="F136" t="n">
+        <v>0.03949911244635193</v>
+      </c>
+      <c r="G136" t="n">
         <v>-6.3</v>
       </c>
-      <c r="G136" t="inlineStr">
+      <c r="H136" t="inlineStr">
         <is>
           <t>HCl</t>
         </is>
       </c>
-      <c r="H136" t="n">
+      <c r="I136" t="n">
         <v>120</v>
       </c>
-      <c r="I136" t="n">
+      <c r="J136" t="n">
         <v>96</v>
       </c>
-      <c r="J136" t="n">
+      <c r="K136" t="n">
         <v>0.835535</v>
       </c>
-      <c r="K136" t="n">
+      <c r="L136" t="n">
         <v>0.047209</v>
-      </c>
-      <c r="L136" t="n">
-        <v>0.038347055</v>
       </c>
     </row>
     <row r="137">
@@ -6167,27 +6167,27 @@
       </c>
       <c r="E137" t="inlineStr"/>
       <c r="F137" t="n">
+        <v>0.011787823</v>
+      </c>
+      <c r="G137" t="n">
         <v>2.86</v>
       </c>
-      <c r="G137" t="inlineStr">
+      <c r="H137" t="inlineStr">
         <is>
           <t>ClAA</t>
         </is>
       </c>
-      <c r="H137" t="n">
+      <c r="I137" t="n">
         <v>60</v>
       </c>
-      <c r="I137" t="n">
+      <c r="J137" t="n">
         <v>96</v>
-      </c>
-      <c r="J137" t="n">
-        <v>0</v>
       </c>
       <c r="K137" t="n">
         <v>0</v>
       </c>
       <c r="L137" t="n">
-        <v>0.011787823</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138">
@@ -6203,33 +6203,33 @@
         <v>8</v>
       </c>
       <c r="D138" t="n">
-        <v>1.9068</v>
+        <v>1.9084384</v>
       </c>
       <c r="E138" t="n">
-        <v>1.62</v>
+        <v>1.62256</v>
       </c>
       <c r="F138" t="n">
+        <v>0.01947072</v>
+      </c>
+      <c r="G138" t="n">
         <v>-6.3</v>
       </c>
-      <c r="G138" t="inlineStr">
+      <c r="H138" t="inlineStr">
         <is>
           <t>HCl</t>
         </is>
       </c>
-      <c r="H138" t="n">
+      <c r="I138" t="n">
         <v>100</v>
       </c>
-      <c r="I138" t="n">
+      <c r="J138" t="n">
         <v>96</v>
       </c>
-      <c r="J138" t="n">
+      <c r="K138" t="n">
         <v>0.539336</v>
       </c>
-      <c r="K138" t="n">
+      <c r="L138" t="n">
         <v>0.006343</v>
-      </c>
-      <c r="L138" t="n">
-        <v>0.018902824</v>
       </c>
     </row>
     <row r="139">
@@ -6245,33 +6245,33 @@
         <v>8</v>
       </c>
       <c r="D139" t="n">
-        <v>5.4464</v>
+        <v>5.445700614592274</v>
       </c>
       <c r="E139" t="n">
-        <v>2.26</v>
+        <v>2.258907210300429</v>
       </c>
       <c r="F139" t="n">
+        <v>0.02710688652360514</v>
+      </c>
+      <c r="G139" t="n">
         <v>-6.3</v>
       </c>
-      <c r="G139" t="inlineStr">
+      <c r="H139" t="inlineStr">
         <is>
           <t>HCl</t>
         </is>
       </c>
-      <c r="H139" t="n">
+      <c r="I139" t="n">
         <v>60</v>
       </c>
-      <c r="I139" t="n">
+      <c r="J139" t="n">
         <v>120</v>
       </c>
-      <c r="J139" t="n">
+      <c r="K139" t="n">
         <v>0.607022</v>
       </c>
-      <c r="K139" t="n">
+      <c r="L139" t="n">
         <v>0.034301</v>
-      </c>
-      <c r="L139" t="n">
-        <v>0.026316269</v>
       </c>
     </row>
     <row r="140">
@@ -6291,27 +6291,27 @@
       </c>
       <c r="E140" t="inlineStr"/>
       <c r="F140" t="n">
+        <v>0.038615832</v>
+      </c>
+      <c r="G140" t="n">
         <v>2.86</v>
       </c>
-      <c r="G140" t="inlineStr">
+      <c r="H140" t="inlineStr">
         <is>
           <t>ClAA</t>
         </is>
       </c>
-      <c r="H140" t="n">
+      <c r="I140" t="n">
         <v>100</v>
       </c>
-      <c r="I140" t="n">
+      <c r="J140" t="n">
         <v>120</v>
       </c>
-      <c r="J140" t="n">
+      <c r="K140" t="n">
         <v>0.007384</v>
       </c>
-      <c r="K140" t="n">
+      <c r="L140" t="n">
         <v>0.000622</v>
-      </c>
-      <c r="L140" t="n">
-        <v>0.038615832</v>
       </c>
     </row>
     <row r="141">
@@ -6333,27 +6333,27 @@
         <v>2</v>
       </c>
       <c r="F141" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="G141" t="n">
         <v>4.75</v>
       </c>
-      <c r="G141" t="inlineStr">
+      <c r="H141" t="inlineStr">
         <is>
           <t>AA</t>
         </is>
       </c>
-      <c r="H141" t="n">
+      <c r="I141" t="n">
         <v>150</v>
       </c>
-      <c r="I141" t="n">
+      <c r="J141" t="n">
         <v>120</v>
       </c>
-      <c r="J141" t="n">
+      <c r="K141" t="n">
         <v>0.164557</v>
       </c>
-      <c r="K141" t="n">
+      <c r="L141" t="n">
         <v>0.01238</v>
-      </c>
-      <c r="L141" t="n">
-        <v>0.034912241</v>
       </c>
     </row>
     <row r="142">
@@ -6369,33 +6369,33 @@
         <v>8</v>
       </c>
       <c r="D142" t="n">
-        <v>2.4704</v>
+        <v>2.467728480686695</v>
       </c>
       <c r="E142" t="n">
-        <v>1.36</v>
+        <v>1.355825751072961</v>
       </c>
       <c r="F142" t="n">
+        <v>0.01626990901287553</v>
+      </c>
+      <c r="G142" t="n">
         <v>-6.3</v>
       </c>
-      <c r="G142" t="inlineStr">
+      <c r="H142" t="inlineStr">
         <is>
           <t>HCl</t>
         </is>
-      </c>
-      <c r="H142" t="n">
-        <v>120</v>
       </c>
       <c r="I142" t="n">
         <v>120</v>
       </c>
       <c r="J142" t="n">
+        <v>120</v>
+      </c>
+      <c r="K142" t="n">
         <v>0.420077</v>
       </c>
-      <c r="K142" t="n">
+      <c r="L142" t="n">
         <v>0.027312</v>
-      </c>
-      <c r="L142" t="n">
-        <v>0.01579537</v>
       </c>
     </row>
     <row r="143">
@@ -6411,33 +6411,33 @@
         <v>8</v>
       </c>
       <c r="D143" t="n">
-        <v>0.9836</v>
+        <v>0.9806040309012878</v>
       </c>
       <c r="E143" t="n">
-        <v>1.49</v>
+        <v>1.485318798283262</v>
       </c>
       <c r="F143" t="n">
+        <v>0.01782382557939914</v>
+      </c>
+      <c r="G143" t="n">
         <v>-6.3</v>
       </c>
-      <c r="G143" t="inlineStr">
+      <c r="H143" t="inlineStr">
         <is>
           <t>HCl</t>
         </is>
       </c>
-      <c r="H143" t="n">
+      <c r="I143" t="n">
         <v>100</v>
       </c>
-      <c r="I143" t="n">
+      <c r="J143" t="n">
         <v>120</v>
       </c>
-      <c r="J143" t="n">
+      <c r="K143" t="n">
         <v>0.498984</v>
       </c>
-      <c r="K143" t="n">
+      <c r="L143" t="n">
         <v>0.026745</v>
-      </c>
-      <c r="L143" t="n">
-        <v>0.017303964</v>
       </c>
     </row>
     <row r="144">
@@ -6457,27 +6457,27 @@
       </c>
       <c r="E144" t="inlineStr"/>
       <c r="F144" t="n">
+        <v>0.048621536</v>
+      </c>
+      <c r="G144" t="n">
         <v>2.86</v>
       </c>
-      <c r="G144" t="inlineStr">
+      <c r="H144" t="inlineStr">
         <is>
           <t>ClAA</t>
         </is>
       </c>
-      <c r="H144" t="n">
+      <c r="I144" t="n">
         <v>80</v>
       </c>
-      <c r="I144" t="n">
+      <c r="J144" t="n">
         <v>144</v>
       </c>
-      <c r="J144" t="n">
+      <c r="K144" t="n">
         <v>0.443111</v>
       </c>
-      <c r="K144" t="n">
+      <c r="L144" t="n">
         <v>0.009362000000000001</v>
-      </c>
-      <c r="L144" t="n">
-        <v>0.048621536</v>
       </c>
     </row>
     <row r="145">
@@ -6493,33 +6493,33 @@
         <v>8</v>
       </c>
       <c r="D145" t="n">
-        <v>3.3868</v>
+        <v>3.388641991416308</v>
       </c>
       <c r="E145" t="n">
-        <v>4.12</v>
+        <v>4.122878111587982</v>
       </c>
       <c r="F145" t="n">
+        <v>0.04947453733905578</v>
+      </c>
+      <c r="G145" t="n">
         <v>-6.3</v>
       </c>
-      <c r="G145" t="inlineStr">
+      <c r="H145" t="inlineStr">
         <is>
           <t>HCl</t>
         </is>
       </c>
-      <c r="H145" t="n">
+      <c r="I145" t="n">
         <v>120</v>
       </c>
-      <c r="I145" t="n">
+      <c r="J145" t="n">
         <v>144</v>
       </c>
-      <c r="J145" t="n">
+      <c r="K145" t="n">
         <v>0.557686</v>
       </c>
-      <c r="K145" t="n">
+      <c r="L145" t="n">
         <v>0.031191</v>
-      </c>
-      <c r="L145" t="n">
-        <v>0.04803153</v>
       </c>
     </row>
     <row r="146">
@@ -6538,30 +6538,30 @@
         <v>1.56</v>
       </c>
       <c r="E146" t="n">
-        <v>0.93</v>
+        <v>0.9295205714285714</v>
       </c>
       <c r="F146" t="n">
+        <v>0.01626661</v>
+      </c>
+      <c r="G146" t="n">
         <v>4.75</v>
       </c>
-      <c r="G146" t="inlineStr">
+      <c r="H146" t="inlineStr">
         <is>
           <t>AA</t>
         </is>
       </c>
-      <c r="H146" t="n">
+      <c r="I146" t="n">
         <v>60</v>
       </c>
-      <c r="I146" t="n">
+      <c r="J146" t="n">
         <v>144</v>
       </c>
-      <c r="J146" t="n">
+      <c r="K146" t="n">
         <v>0.035016</v>
       </c>
-      <c r="K146" t="n">
+      <c r="L146" t="n">
         <v>0.004921</v>
-      </c>
-      <c r="L146" t="n">
-        <v>0.01626661</v>
       </c>
     </row>
     <row r="147">
@@ -6577,33 +6577,33 @@
         <v>8</v>
       </c>
       <c r="D147" t="n">
-        <v>5.12</v>
+        <v>5.12131768583691</v>
       </c>
       <c r="E147" t="n">
-        <v>2.75</v>
+        <v>2.752058884120172</v>
       </c>
       <c r="F147" t="n">
+        <v>0.03302470660944207</v>
+      </c>
+      <c r="G147" t="n">
         <v>-6.3</v>
       </c>
-      <c r="G147" t="inlineStr">
+      <c r="H147" t="inlineStr">
         <is>
           <t>HCl</t>
         </is>
       </c>
-      <c r="H147" t="n">
+      <c r="I147" t="n">
         <v>120</v>
       </c>
-      <c r="I147" t="n">
+      <c r="J147" t="n">
         <v>144</v>
       </c>
-      <c r="J147" t="n">
+      <c r="K147" t="n">
         <v>0.585445</v>
       </c>
-      <c r="K147" t="n">
+      <c r="L147" t="n">
         <v>0.044575</v>
-      </c>
-      <c r="L147" t="n">
-        <v>0.032061486</v>
       </c>
     </row>
     <row r="148">
@@ -6619,33 +6619,33 @@
         <v>8</v>
       </c>
       <c r="D148" t="n">
-        <v>6.4192</v>
+        <v>6.418672233476395</v>
       </c>
       <c r="E148" t="n">
-        <v>3.78</v>
+        <v>3.779175364806866</v>
       </c>
       <c r="F148" t="n">
+        <v>0.04535010437768239</v>
+      </c>
+      <c r="G148" t="n">
         <v>-6.3</v>
       </c>
-      <c r="G148" t="inlineStr">
+      <c r="H148" t="inlineStr">
         <is>
           <t>HCl</t>
         </is>
       </c>
-      <c r="H148" t="n">
+      <c r="I148" t="n">
         <v>100</v>
       </c>
-      <c r="I148" t="n">
+      <c r="J148" t="n">
         <v>144</v>
       </c>
-      <c r="J148" t="n">
+      <c r="K148" t="n">
         <v>0.628919</v>
       </c>
-      <c r="K148" t="n">
+      <c r="L148" t="n">
         <v>0.005768</v>
-      </c>
-      <c r="L148" t="n">
-        <v>0.044027393</v>
       </c>
     </row>
     <row r="149">
@@ -6665,27 +6665,27 @@
       </c>
       <c r="E149" t="inlineStr"/>
       <c r="F149" t="n">
+        <v>0.0498692</v>
+      </c>
+      <c r="G149" t="n">
         <v>2.86</v>
       </c>
-      <c r="G149" t="inlineStr">
+      <c r="H149" t="inlineStr">
         <is>
           <t>ClAA</t>
         </is>
       </c>
-      <c r="H149" t="n">
+      <c r="I149" t="n">
         <v>150</v>
       </c>
-      <c r="I149" t="n">
+      <c r="J149" t="n">
         <v>168</v>
       </c>
-      <c r="J149" t="n">
+      <c r="K149" t="n">
         <v>0.130542</v>
       </c>
-      <c r="K149" t="n">
+      <c r="L149" t="n">
         <v>0.02566</v>
-      </c>
-      <c r="L149" t="n">
-        <v>0.0498692</v>
       </c>
     </row>
     <row r="150">
@@ -6704,30 +6704,30 @@
         <v>1.9</v>
       </c>
       <c r="E150" t="n">
-        <v>2.26</v>
+        <v>2.256145657142857</v>
       </c>
       <c r="F150" t="n">
+        <v>0.03948254900000001</v>
+      </c>
+      <c r="G150" t="n">
         <v>4.75</v>
       </c>
-      <c r="G150" t="inlineStr">
+      <c r="H150" t="inlineStr">
         <is>
           <t>AA</t>
         </is>
       </c>
-      <c r="H150" t="n">
+      <c r="I150" t="n">
         <v>25</v>
       </c>
-      <c r="I150" t="n">
+      <c r="J150" t="n">
         <v>168</v>
-      </c>
-      <c r="J150" t="n">
-        <v>0</v>
       </c>
       <c r="K150" t="n">
         <v>0</v>
       </c>
       <c r="L150" t="n">
-        <v>0.039482549</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151">
@@ -6743,33 +6743,33 @@
         <v>8</v>
       </c>
       <c r="D151" t="n">
-        <v>1.8084</v>
+        <v>1.809134489270386</v>
       </c>
       <c r="E151" t="n">
-        <v>1.06</v>
+        <v>1.061147639484978</v>
       </c>
       <c r="F151" t="n">
+        <v>0.01273377167381973</v>
+      </c>
+      <c r="G151" t="n">
         <v>-6.3</v>
       </c>
-      <c r="G151" t="inlineStr">
+      <c r="H151" t="inlineStr">
         <is>
           <t>HCl</t>
         </is>
       </c>
-      <c r="H151" t="n">
+      <c r="I151" t="n">
         <v>100</v>
       </c>
-      <c r="I151" t="n">
+      <c r="J151" t="n">
         <v>168</v>
       </c>
-      <c r="J151" t="n">
+      <c r="K151" t="n">
         <v>0.510229</v>
       </c>
-      <c r="K151" t="n">
+      <c r="L151" t="n">
         <v>0.033852</v>
-      </c>
-      <c r="L151" t="n">
-        <v>0.01236237</v>
       </c>
     </row>
     <row r="152">
@@ -6788,30 +6788,30 @@
         <v>0.16</v>
       </c>
       <c r="E152" t="n">
-        <v>1.21</v>
+        <v>1.208147371428572</v>
       </c>
       <c r="F152" t="n">
+        <v>0.02114257900000001</v>
+      </c>
+      <c r="G152" t="n">
         <v>4.75</v>
       </c>
-      <c r="G152" t="inlineStr">
+      <c r="H152" t="inlineStr">
         <is>
           <t>AA</t>
         </is>
       </c>
-      <c r="H152" t="n">
+      <c r="I152" t="n">
         <v>120</v>
       </c>
-      <c r="I152" t="n">
+      <c r="J152" t="n">
         <v>168</v>
       </c>
-      <c r="J152" t="n">
+      <c r="K152" t="n">
         <v>0.1861</v>
       </c>
-      <c r="K152" t="n">
+      <c r="L152" t="n">
         <v>0.017494</v>
-      </c>
-      <c r="L152" t="n">
-        <v>0.021142579</v>
       </c>
     </row>
     <row r="153">
@@ -6830,30 +6830,30 @@
         <v>3.37</v>
       </c>
       <c r="E153" t="n">
-        <v>0.5</v>
+        <v>0.4967574994322148</v>
       </c>
       <c r="F153" t="n">
+        <v>0.006491398000000002</v>
+      </c>
+      <c r="G153" t="n">
         <v>0</v>
       </c>
-      <c r="G153" t="inlineStr">
+      <c r="H153" t="inlineStr">
         <is>
           <t>TFAA</t>
         </is>
       </c>
-      <c r="H153" t="n">
+      <c r="I153" t="n">
         <v>60</v>
       </c>
-      <c r="I153" t="n">
+      <c r="J153" t="n">
         <v>168</v>
       </c>
-      <c r="J153" t="n">
+      <c r="K153" t="n">
         <v>0.179843</v>
       </c>
-      <c r="K153" t="n">
+      <c r="L153" t="n">
         <v>0.0006287</v>
-      </c>
-      <c r="L153" t="n">
-        <v>0.006491398</v>
       </c>
     </row>
     <row r="154">
@@ -6869,33 +6869,33 @@
         <v>8</v>
       </c>
       <c r="D154" t="n">
-        <v>4.0176</v>
+        <v>4.017599999999999</v>
       </c>
       <c r="E154" t="n">
-        <v>0.34</v>
+        <v>0.339999999999999</v>
       </c>
       <c r="F154" t="n">
+        <v>0.004079999999999988</v>
+      </c>
+      <c r="G154" t="n">
         <v>-6.3</v>
       </c>
-      <c r="G154" t="inlineStr">
+      <c r="H154" t="inlineStr">
         <is>
           <t>HCl</t>
         </is>
       </c>
-      <c r="H154" t="n">
+      <c r="I154" t="n">
         <v>80</v>
       </c>
-      <c r="I154" t="n">
+      <c r="J154" t="n">
         <v>168</v>
       </c>
-      <c r="J154" t="n">
+      <c r="K154" t="n">
         <v>0.1715562332788751</v>
       </c>
-      <c r="K154" t="n">
+      <c r="L154" t="n">
         <v>0.0188438642516166</v>
-      </c>
-      <c r="L154" t="n">
-        <v>0.00408</v>
       </c>
     </row>
     <row r="155">
@@ -6917,27 +6917,27 @@
         <v>0.1</v>
       </c>
       <c r="F155" t="n">
+        <v>0.0012</v>
+      </c>
+      <c r="G155" t="n">
         <v>-6.3</v>
       </c>
-      <c r="G155" t="inlineStr">
+      <c r="H155" t="inlineStr">
         <is>
           <t>HCl</t>
         </is>
       </c>
-      <c r="H155" t="n">
+      <c r="I155" t="n">
         <v>100</v>
       </c>
-      <c r="I155" t="n">
+      <c r="J155" t="n">
         <v>24</v>
       </c>
-      <c r="J155" t="n">
+      <c r="K155" t="n">
         <v>0.01326</v>
       </c>
-      <c r="K155" t="n">
+      <c r="L155" t="n">
         <v>8.89021e-05</v>
-      </c>
-      <c r="L155" t="n">
-        <v>0.0012</v>
       </c>
     </row>
     <row r="156">
@@ -6959,27 +6959,27 @@
         <v>0.5</v>
       </c>
       <c r="F156" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="G156" t="n">
         <v>-6.3</v>
       </c>
-      <c r="G156" t="inlineStr">
+      <c r="H156" t="inlineStr">
         <is>
           <t>HCl</t>
         </is>
       </c>
-      <c r="H156" t="n">
+      <c r="I156" t="n">
         <v>100</v>
       </c>
-      <c r="I156" t="n">
+      <c r="J156" t="n">
         <v>24</v>
       </c>
-      <c r="J156" t="n">
+      <c r="K156" t="n">
         <v>0.0703</v>
       </c>
-      <c r="K156" t="n">
+      <c r="L156" t="n">
         <v>0.00567</v>
-      </c>
-      <c r="L156" t="n">
-        <v>0.006</v>
       </c>
     </row>
     <row r="157">
@@ -7001,27 +7001,27 @@
         <v>1</v>
       </c>
       <c r="F157" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="G157" t="n">
         <v>-6.3</v>
       </c>
-      <c r="G157" t="inlineStr">
+      <c r="H157" t="inlineStr">
         <is>
           <t>HCl</t>
         </is>
       </c>
-      <c r="H157" t="n">
+      <c r="I157" t="n">
         <v>100</v>
       </c>
-      <c r="I157" t="n">
+      <c r="J157" t="n">
         <v>24</v>
       </c>
-      <c r="J157" t="n">
+      <c r="K157" t="n">
         <v>0.15467</v>
       </c>
-      <c r="K157" t="n">
+      <c r="L157" t="n">
         <v>0.02787</v>
-      </c>
-      <c r="L157" t="n">
-        <v>0.012</v>
       </c>
     </row>
     <row r="158">
@@ -7043,27 +7043,27 @@
         <v>0.1</v>
       </c>
       <c r="F158" t="n">
+        <v>0.0012</v>
+      </c>
+      <c r="G158" t="n">
         <v>-6.3</v>
       </c>
-      <c r="G158" t="inlineStr">
+      <c r="H158" t="inlineStr">
         <is>
           <t>HCl</t>
         </is>
       </c>
-      <c r="H158" t="n">
+      <c r="I158" t="n">
         <v>100</v>
       </c>
-      <c r="I158" t="n">
+      <c r="J158" t="n">
         <v>48</v>
       </c>
-      <c r="J158" t="n">
+      <c r="K158" t="n">
         <v>0.01293</v>
       </c>
-      <c r="K158" t="n">
+      <c r="L158" t="n">
         <v>0.00213</v>
-      </c>
-      <c r="L158" t="n">
-        <v>0.0012</v>
       </c>
     </row>
     <row r="159">
@@ -7085,27 +7085,27 @@
         <v>0.5</v>
       </c>
       <c r="F159" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="G159" t="n">
         <v>-6.3</v>
       </c>
-      <c r="G159" t="inlineStr">
+      <c r="H159" t="inlineStr">
         <is>
           <t>HCl</t>
         </is>
       </c>
-      <c r="H159" t="n">
+      <c r="I159" t="n">
         <v>100</v>
       </c>
-      <c r="I159" t="n">
+      <c r="J159" t="n">
         <v>48</v>
       </c>
-      <c r="J159" t="n">
+      <c r="K159" t="n">
         <v>0.10569</v>
       </c>
-      <c r="K159" t="n">
+      <c r="L159" t="n">
         <v>0.01722</v>
-      </c>
-      <c r="L159" t="n">
-        <v>0.006</v>
       </c>
     </row>
     <row r="160">
@@ -7127,27 +7127,27 @@
         <v>1</v>
       </c>
       <c r="F160" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="G160" t="n">
         <v>-6.3</v>
       </c>
-      <c r="G160" t="inlineStr">
+      <c r="H160" t="inlineStr">
         <is>
           <t>HCl</t>
         </is>
       </c>
-      <c r="H160" t="n">
+      <c r="I160" t="n">
         <v>100</v>
       </c>
-      <c r="I160" t="n">
+      <c r="J160" t="n">
         <v>48</v>
       </c>
-      <c r="J160" t="n">
+      <c r="K160" t="n">
         <v>0.20323</v>
       </c>
-      <c r="K160" t="n">
+      <c r="L160" t="n">
         <v>0.03804</v>
-      </c>
-      <c r="L160" t="n">
-        <v>0.012</v>
       </c>
     </row>
     <row r="161">
@@ -7169,27 +7169,27 @@
         <v>0.1</v>
       </c>
       <c r="F161" t="n">
+        <v>0.0012</v>
+      </c>
+      <c r="G161" t="n">
         <v>-6.3</v>
       </c>
-      <c r="G161" t="inlineStr">
+      <c r="H161" t="inlineStr">
         <is>
           <t>HCl</t>
         </is>
       </c>
-      <c r="H161" t="n">
+      <c r="I161" t="n">
         <v>100</v>
       </c>
-      <c r="I161" t="n">
+      <c r="J161" t="n">
         <v>72</v>
       </c>
-      <c r="J161" t="n">
+      <c r="K161" t="n">
         <v>0.04163</v>
       </c>
-      <c r="K161" t="n">
+      <c r="L161" t="n">
         <v>0.00655</v>
-      </c>
-      <c r="L161" t="n">
-        <v>0.0012</v>
       </c>
     </row>
     <row r="162">
@@ -7211,27 +7211,27 @@
         <v>0.5</v>
       </c>
       <c r="F162" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="G162" t="n">
         <v>-6.3</v>
       </c>
-      <c r="G162" t="inlineStr">
+      <c r="H162" t="inlineStr">
         <is>
           <t>HCl</t>
         </is>
       </c>
-      <c r="H162" t="n">
+      <c r="I162" t="n">
         <v>100</v>
       </c>
-      <c r="I162" t="n">
+      <c r="J162" t="n">
         <v>72</v>
       </c>
-      <c r="J162" t="n">
+      <c r="K162" t="n">
         <v>0.25295</v>
       </c>
-      <c r="K162" t="n">
+      <c r="L162" t="n">
         <v>0.00933</v>
-      </c>
-      <c r="L162" t="n">
-        <v>0.006</v>
       </c>
     </row>
     <row r="163">
@@ -7253,27 +7253,27 @@
         <v>1</v>
       </c>
       <c r="F163" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="G163" t="n">
         <v>-6.3</v>
       </c>
-      <c r="G163" t="inlineStr">
+      <c r="H163" t="inlineStr">
         <is>
           <t>HCl</t>
         </is>
       </c>
-      <c r="H163" t="n">
+      <c r="I163" t="n">
         <v>100</v>
       </c>
-      <c r="I163" t="n">
+      <c r="J163" t="n">
         <v>72</v>
       </c>
-      <c r="J163" t="n">
+      <c r="K163" t="n">
         <v>0.45927</v>
       </c>
-      <c r="K163" t="n">
+      <c r="L163" t="n">
         <v>0.01136</v>
-      </c>
-      <c r="L163" t="n">
-        <v>0.012</v>
       </c>
     </row>
     <row r="164">
@@ -7295,27 +7295,27 @@
         <v>0.1</v>
       </c>
       <c r="F164" t="n">
+        <v>0.0012</v>
+      </c>
+      <c r="G164" t="n">
         <v>-6.3</v>
       </c>
-      <c r="G164" t="inlineStr">
+      <c r="H164" t="inlineStr">
         <is>
           <t>HCl</t>
         </is>
       </c>
-      <c r="H164" t="n">
+      <c r="I164" t="n">
         <v>100</v>
       </c>
-      <c r="I164" t="n">
+      <c r="J164" t="n">
         <v>168</v>
       </c>
-      <c r="J164" t="n">
+      <c r="K164" t="n">
         <v>0.05965</v>
       </c>
-      <c r="K164" t="n">
+      <c r="L164" t="n">
         <v>0.007860000000000001</v>
-      </c>
-      <c r="L164" t="n">
-        <v>0.0012</v>
       </c>
     </row>
     <row r="165">
@@ -7337,27 +7337,27 @@
         <v>0.5</v>
       </c>
       <c r="F165" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="G165" t="n">
         <v>-6.3</v>
       </c>
-      <c r="G165" t="inlineStr">
+      <c r="H165" t="inlineStr">
         <is>
           <t>HCl</t>
         </is>
       </c>
-      <c r="H165" t="n">
+      <c r="I165" t="n">
         <v>100</v>
       </c>
-      <c r="I165" t="n">
+      <c r="J165" t="n">
         <v>168</v>
       </c>
-      <c r="J165" t="n">
+      <c r="K165" t="n">
         <v>0.2498058127414342</v>
       </c>
-      <c r="K165" t="n">
+      <c r="L165" t="n">
         <v>0.004994570880173541</v>
-      </c>
-      <c r="L165" t="n">
-        <v>0.006</v>
       </c>
     </row>
     <row r="166">
@@ -7379,27 +7379,27 @@
         <v>1</v>
       </c>
       <c r="F166" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="G166" t="n">
         <v>-6.3</v>
       </c>
-      <c r="G166" t="inlineStr">
+      <c r="H166" t="inlineStr">
         <is>
           <t>HCl</t>
         </is>
       </c>
-      <c r="H166" t="n">
+      <c r="I166" t="n">
         <v>100</v>
       </c>
-      <c r="I166" t="n">
+      <c r="J166" t="n">
         <v>168</v>
       </c>
-      <c r="J166" t="n">
+      <c r="K166" t="n">
         <v>0.68393</v>
       </c>
-      <c r="K166" t="n">
+      <c r="L166" t="n">
         <v>0.04387</v>
-      </c>
-      <c r="L166" t="n">
-        <v>0.012</v>
       </c>
     </row>
     <row r="167">
@@ -7421,27 +7421,27 @@
         <v>0.1</v>
       </c>
       <c r="F167" t="n">
+        <v>0.0012</v>
+      </c>
+      <c r="G167" t="n">
         <v>-6.3</v>
       </c>
-      <c r="G167" t="inlineStr">
+      <c r="H167" t="inlineStr">
         <is>
           <t>HCl</t>
         </is>
       </c>
-      <c r="H167" t="n">
+      <c r="I167" t="n">
         <v>120</v>
       </c>
-      <c r="I167" t="n">
+      <c r="J167" t="n">
         <v>24</v>
       </c>
-      <c r="J167" t="n">
+      <c r="K167" t="n">
         <v>0.01354</v>
       </c>
-      <c r="K167" t="n">
+      <c r="L167" t="n">
         <v>0.00231</v>
-      </c>
-      <c r="L167" t="n">
-        <v>0.0012</v>
       </c>
     </row>
     <row r="168">
@@ -7463,27 +7463,27 @@
         <v>0.5</v>
       </c>
       <c r="F168" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="G168" t="n">
         <v>-6.3</v>
       </c>
-      <c r="G168" t="inlineStr">
+      <c r="H168" t="inlineStr">
         <is>
           <t>HCl</t>
         </is>
       </c>
-      <c r="H168" t="n">
+      <c r="I168" t="n">
         <v>120</v>
       </c>
-      <c r="I168" t="n">
+      <c r="J168" t="n">
         <v>24</v>
       </c>
-      <c r="J168" t="n">
+      <c r="K168" t="n">
         <v>0.07521</v>
       </c>
-      <c r="K168" t="n">
+      <c r="L168" t="n">
         <v>0.00231</v>
-      </c>
-      <c r="L168" t="n">
-        <v>0.006</v>
       </c>
     </row>
     <row r="169">
@@ -7505,27 +7505,27 @@
         <v>1</v>
       </c>
       <c r="F169" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="G169" t="n">
         <v>-6.3</v>
       </c>
-      <c r="G169" t="inlineStr">
+      <c r="H169" t="inlineStr">
         <is>
           <t>HCl</t>
         </is>
       </c>
-      <c r="H169" t="n">
+      <c r="I169" t="n">
         <v>120</v>
       </c>
-      <c r="I169" t="n">
+      <c r="J169" t="n">
         <v>24</v>
       </c>
-      <c r="J169" t="n">
+      <c r="K169" t="n">
         <v>0.15043</v>
       </c>
-      <c r="K169" t="n">
+      <c r="L169" t="n">
         <v>0.0286</v>
-      </c>
-      <c r="L169" t="n">
-        <v>0.012</v>
       </c>
     </row>
     <row r="170">
@@ -7547,27 +7547,27 @@
         <v>0.1</v>
       </c>
       <c r="F170" t="n">
+        <v>0.0012</v>
+      </c>
+      <c r="G170" t="n">
         <v>-6.3</v>
       </c>
-      <c r="G170" t="inlineStr">
+      <c r="H170" t="inlineStr">
         <is>
           <t>HCl</t>
         </is>
       </c>
-      <c r="H170" t="n">
+      <c r="I170" t="n">
         <v>120</v>
       </c>
-      <c r="I170" t="n">
+      <c r="J170" t="n">
         <v>48</v>
       </c>
-      <c r="J170" t="n">
+      <c r="K170" t="n">
         <v>0.01919</v>
       </c>
-      <c r="K170" t="n">
+      <c r="L170" t="n">
         <v>0.00702</v>
-      </c>
-      <c r="L170" t="n">
-        <v>0.0012</v>
       </c>
     </row>
     <row r="171">
@@ -7589,27 +7589,27 @@
         <v>0.5</v>
       </c>
       <c r="F171" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="G171" t="n">
         <v>-6.3</v>
       </c>
-      <c r="G171" t="inlineStr">
+      <c r="H171" t="inlineStr">
         <is>
           <t>HCl</t>
         </is>
       </c>
-      <c r="H171" t="n">
+      <c r="I171" t="n">
         <v>120</v>
       </c>
-      <c r="I171" t="n">
+      <c r="J171" t="n">
         <v>48</v>
       </c>
-      <c r="J171" t="n">
+      <c r="K171" t="n">
         <v>0.08351</v>
       </c>
-      <c r="K171" t="n">
+      <c r="L171" t="n">
         <v>0.01143</v>
-      </c>
-      <c r="L171" t="n">
-        <v>0.006</v>
       </c>
     </row>
     <row r="172">
@@ -7631,27 +7631,27 @@
         <v>1</v>
       </c>
       <c r="F172" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="G172" t="n">
         <v>-6.3</v>
       </c>
-      <c r="G172" t="inlineStr">
+      <c r="H172" t="inlineStr">
         <is>
           <t>HCl</t>
         </is>
       </c>
-      <c r="H172" t="n">
+      <c r="I172" t="n">
         <v>120</v>
       </c>
-      <c r="I172" t="n">
+      <c r="J172" t="n">
         <v>48</v>
       </c>
-      <c r="J172" t="n">
+      <c r="K172" t="n">
         <v>0.13921</v>
       </c>
-      <c r="K172" t="n">
+      <c r="L172" t="n">
         <v>0.00585</v>
-      </c>
-      <c r="L172" t="n">
-        <v>0.012</v>
       </c>
     </row>
     <row r="173">
@@ -7673,27 +7673,27 @@
         <v>0.1</v>
       </c>
       <c r="F173" t="n">
+        <v>0.0012</v>
+      </c>
+      <c r="G173" t="n">
         <v>-6.3</v>
       </c>
-      <c r="G173" t="inlineStr">
+      <c r="H173" t="inlineStr">
         <is>
           <t>HCl</t>
         </is>
       </c>
-      <c r="H173" t="n">
+      <c r="I173" t="n">
         <v>120</v>
       </c>
-      <c r="I173" t="n">
+      <c r="J173" t="n">
         <v>72</v>
       </c>
-      <c r="J173" t="n">
+      <c r="K173" t="n">
         <v>0.01634</v>
       </c>
-      <c r="K173" t="n">
+      <c r="L173" t="n">
         <v>0.00194</v>
-      </c>
-      <c r="L173" t="n">
-        <v>0.0012</v>
       </c>
     </row>
     <row r="174">
@@ -7715,27 +7715,27 @@
         <v>0.5</v>
       </c>
       <c r="F174" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="G174" t="n">
         <v>-6.3</v>
       </c>
-      <c r="G174" t="inlineStr">
+      <c r="H174" t="inlineStr">
         <is>
           <t>HCl</t>
         </is>
       </c>
-      <c r="H174" t="n">
+      <c r="I174" t="n">
         <v>120</v>
       </c>
-      <c r="I174" t="n">
+      <c r="J174" t="n">
         <v>72</v>
       </c>
-      <c r="J174" t="n">
+      <c r="K174" t="n">
         <v>0.31839</v>
       </c>
-      <c r="K174" t="n">
+      <c r="L174" t="n">
         <v>0.03693</v>
-      </c>
-      <c r="L174" t="n">
-        <v>0.006</v>
       </c>
     </row>
     <row r="175">
@@ -7757,27 +7757,27 @@
         <v>1</v>
       </c>
       <c r="F175" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="G175" t="n">
         <v>-6.3</v>
       </c>
-      <c r="G175" t="inlineStr">
+      <c r="H175" t="inlineStr">
         <is>
           <t>HCl</t>
         </is>
       </c>
-      <c r="H175" t="n">
+      <c r="I175" t="n">
         <v>120</v>
       </c>
-      <c r="I175" t="n">
+      <c r="J175" t="n">
         <v>72</v>
       </c>
-      <c r="J175" t="n">
+      <c r="K175" t="n">
         <v>0.424716</v>
       </c>
-      <c r="K175" t="n">
+      <c r="L175" t="n">
         <v>0.015782</v>
-      </c>
-      <c r="L175" t="n">
-        <v>0.012</v>
       </c>
     </row>
     <row r="176">
@@ -7799,27 +7799,27 @@
         <v>0.1</v>
       </c>
       <c r="F176" t="n">
+        <v>0.0012</v>
+      </c>
+      <c r="G176" t="n">
         <v>-6.3</v>
       </c>
-      <c r="G176" t="inlineStr">
+      <c r="H176" t="inlineStr">
         <is>
           <t>HCl</t>
         </is>
       </c>
-      <c r="H176" t="n">
+      <c r="I176" t="n">
         <v>120</v>
       </c>
-      <c r="I176" t="n">
+      <c r="J176" t="n">
         <v>168</v>
       </c>
-      <c r="J176" t="n">
+      <c r="K176" t="n">
         <v>0.06525</v>
       </c>
-      <c r="K176" t="n">
+      <c r="L176" t="n">
         <v>0.01135</v>
-      </c>
-      <c r="L176" t="n">
-        <v>0.0012</v>
       </c>
     </row>
     <row r="177">
@@ -7841,27 +7841,27 @@
         <v>0.5</v>
       </c>
       <c r="F177" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="G177" t="n">
         <v>-6.3</v>
       </c>
-      <c r="G177" t="inlineStr">
+      <c r="H177" t="inlineStr">
         <is>
           <t>HCl</t>
         </is>
       </c>
-      <c r="H177" t="n">
+      <c r="I177" t="n">
         <v>120</v>
       </c>
-      <c r="I177" t="n">
+      <c r="J177" t="n">
         <v>168</v>
       </c>
-      <c r="J177" t="n">
+      <c r="K177" t="n">
         <v>0.36584</v>
       </c>
-      <c r="K177" t="n">
+      <c r="L177" t="n">
         <v>0.04432</v>
-      </c>
-      <c r="L177" t="n">
-        <v>0.006</v>
       </c>
     </row>
     <row r="178">
@@ -7883,27 +7883,27 @@
         <v>1</v>
       </c>
       <c r="F178" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="G178" t="n">
         <v>-6.3</v>
       </c>
-      <c r="G178" t="inlineStr">
+      <c r="H178" t="inlineStr">
         <is>
           <t>HCl</t>
         </is>
       </c>
-      <c r="H178" t="n">
+      <c r="I178" t="n">
         <v>120</v>
       </c>
-      <c r="I178" t="n">
+      <c r="J178" t="n">
         <v>168</v>
       </c>
-      <c r="J178" t="n">
+      <c r="K178" t="n">
         <v>0.4954162781683178</v>
       </c>
-      <c r="K178" t="n">
+      <c r="L178" t="n">
         <v>0.01172828532274842</v>
-      </c>
-      <c r="L178" t="n">
-        <v>0.012</v>
       </c>
     </row>
     <row r="179">
@@ -7925,27 +7925,27 @@
         <v>1</v>
       </c>
       <c r="F179" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="G179" t="n">
         <v>-6.3</v>
       </c>
-      <c r="G179" t="inlineStr">
+      <c r="H179" t="inlineStr">
         <is>
           <t>HCl</t>
         </is>
       </c>
-      <c r="H179" t="n">
+      <c r="I179" t="n">
         <v>120</v>
       </c>
-      <c r="I179" t="n">
+      <c r="J179" t="n">
         <v>72</v>
       </c>
-      <c r="J179" t="n">
+      <c r="K179" t="n">
         <v>0.353266</v>
       </c>
-      <c r="K179" t="n">
+      <c r="L179" t="n">
         <v>0.011596</v>
-      </c>
-      <c r="L179" t="n">
-        <v>0.012</v>
       </c>
     </row>
   </sheetData>
